--- a/Documents/Project Manage/Task Check List.xlsx
+++ b/Documents/Project Manage/Task Check List.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cookie/Documents/UnityProjectFolder/Hippocampus/Documents/Project Manage/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8493D67-C458-1649-8DE7-1AEACDC4F080}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12270"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="28740" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist - Task Checklist（S1，S" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="71">
   <si>
     <t>Task Checklist（S1，S2MUST，S3，S4，S5 Should，S6—— Can）</t>
   </si>
@@ -107,20 +113,140 @@
   </si>
   <si>
     <t>对话环节的天气变化</t>
+  </si>
+  <si>
+    <t>Estimated Time</t>
+  </si>
+  <si>
+    <t>Artist Task Checklist</t>
+  </si>
+  <si>
+    <t>Designer Task Checklist</t>
+  </si>
+  <si>
+    <t>Unity，剧情分支，选项，实现label和jump这两个node的功能</t>
+  </si>
+  <si>
+    <t>Unity，文字控制符，对话中停顿</t>
+  </si>
+  <si>
+    <t>Editor，剧情分支，选项编辑，实现label和jump</t>
+  </si>
+  <si>
+    <t>Editor，文字控制符，字体调整，调整字体大小</t>
+  </si>
+  <si>
+    <t>Editor，文字控制符，对话中停顿，可以调整等待的时长</t>
+  </si>
+  <si>
+    <t>Unity，文字控制符，立绘的移动</t>
+  </si>
+  <si>
+    <t>Unity，文字控制符，追问功能</t>
+  </si>
+  <si>
+    <t>Editor，文字控制符，Tips功能</t>
+  </si>
+  <si>
+    <t>Editor，Tips编辑功能</t>
+  </si>
+  <si>
+    <t>Unity，虚拟摇杆，角色在场景中可移动</t>
+  </si>
+  <si>
+    <t>Unity，角色可以与场景中的道具相交互，触发一个事件</t>
+  </si>
+  <si>
+    <t>Unity，场景切换，从游戏开始界面，切换到游戏场景，游戏关闭</t>
+  </si>
+  <si>
+    <t>Unity，更新资源管理系统，提供对于UI和场景的接口，整合Addressable</t>
+  </si>
+  <si>
+    <t>Unity，声音系统，固定音量播放</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>Unity，镜头控制，跟着角色移动</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>0h</t>
+  </si>
+  <si>
+    <t>Unity，剧情数据结构，json读取，在UI上显示基础对话，只显示名字和内容</t>
+  </si>
+  <si>
+    <t>Unity，对话框打字机效果</t>
+  </si>
+  <si>
+    <t>Unity，文字控制符，颜色控制，播放对应颜色，字体调整，调整字体大小</t>
+  </si>
+  <si>
+    <t>Unity，UI框架，提供显示提示框，对话框，选择框和漂浮选择框</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>Unity，文字控制符，Tips功能，当运行到这个字的时候提示加入到Tips中，Tips显示功能，作为设置的一个选项</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Editor，表格编辑功能</t>
+  </si>
+  <si>
+    <t>Editor，文字控制符，立绘的移动，选择移动的方式、和位移</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Editor，输出表格</t>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity，图片资源管理</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="dd/mm/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -139,159 +265,8 @@
       <name val="Avenir Next Demi Bold"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Avenir Next Demi Bold"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,194 +279,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -605,17 +394,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
+      <left style="dotted">
+        <color indexed="12"/>
       </left>
-      <right style="dotted">
-        <color indexed="12"/>
-      </right>
-      <top style="dotted">
-        <color indexed="12"/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="dotted">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,14 +410,12 @@
       <left style="dotted">
         <color indexed="12"/>
       </left>
-      <right style="dotted">
-        <color indexed="12"/>
-      </right>
+      <right/>
       <top style="dotted">
         <color indexed="12"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="dotted">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,375 +423,175 @@
       <left style="dotted">
         <color indexed="12"/>
       </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="12"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="dotted">
         <color indexed="12"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="dotted">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="dotted">
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top style="dotted">
+        <color indexed="12"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="dotted">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1080,42 +665,51 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>71257</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>5397</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>350657</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>208597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>399929</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57029</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>424791</xdr:rowOff>
+      <xdr:rowOff>348591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="C372F5A90361E35E263F76F8B85E88D9.jpg"/>
+        <xdr:cNvPr id="2" name="C372F5A90361E35E263F76F8B85E88D9.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8850630" y="673100"/>
-          <a:ext cx="3601085" cy="2581910"/>
+          <a:off x="12263257" y="589597"/>
+          <a:ext cx="4062472" cy="2514894"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1133,34 +727,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>71257</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>376057</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>321544</xdr:rowOff>
+      <xdr:rowOff>232644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>344133</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>26633</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>150260</xdr:rowOff>
+      <xdr:rowOff>61360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="C5D718222888D91E1C800772AD86FD1D.jpg"/>
+        <xdr:cNvPr id="3" name="C5D718222888D91E1C800772AD86FD1D.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8850630" y="3580130"/>
-          <a:ext cx="3545205" cy="2279015"/>
+          <a:off x="12288657" y="3407644"/>
+          <a:ext cx="4006676" cy="2203616"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1172,6 +772,106 @@
           <a:tailEnd/>
         </a:ln>
         <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>328616</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>369919</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6AF59D-8F5A-CC40-A8CD-77DCA0FC4CA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13752516" y="6337300"/>
+          <a:ext cx="5019703" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>315100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>162700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>23000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>200800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C161121-F15B-0F44-9BC9-0BE30F6A7CBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13739000" y="9675000"/>
+          <a:ext cx="4064000" cy="2273300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1400,7 +1100,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1687,7 +1387,7 @@
           <a:miter lim="400000"/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1963,7 +1663,7 @@
           <a:miter lim="400000"/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2236,423 +1936,1010 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IX57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="21.65" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.18095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.2666666666667" style="1" customWidth="1"/>
-    <col min="4" max="5" width="19.7809523809524" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.18095238095238" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="19.83203125" style="1" customWidth="1"/>
+    <col min="8" max="258" width="8.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="22.6" customHeight="1" spans="1:5">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="22.85" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="8" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="E52" s="16"/>
+      <c r="F52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D57" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E57" s="17"/>
+      <c r="F57" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" ht="33.7" customHeight="1" spans="1:5">
-      <c r="A8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="G57" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="33.7" customHeight="1" spans="1:5">
-      <c r="A10" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" ht="33.7" customHeight="1" spans="1:5">
-      <c r="A11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A12" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A14" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A16" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A18" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A20" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A22" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A24" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A28" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" ht="22.75" customHeight="1" spans="1:5">
-      <c r="A29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A30" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A56:G56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Documents/Project Manage/Task Check List.xlsx
+++ b/Documents/Project Manage/Task Check List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cookie/Documents/UnityProjectFolder/Hippocampus/Documents/Project Manage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProjects\Hippocampus\Documents\Project Manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8493D67-C458-1649-8DE7-1AEACDC4F080}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E10830-0A3B-4F12-9853-CD95C5F7D0B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="28740" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist - Task Checklist（S1，S" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="75">
   <si>
     <t>Task Checklist（S1，S2MUST，S3，S4，S5 Should，S6—— Can）</t>
   </si>
@@ -237,6 +237,18 @@
   </si>
   <si>
     <t>Unity，图片资源管理</t>
+  </si>
+  <si>
+    <t>Editor，优化显示，对于不同的类型，制作一个可缩略的选项</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Editor，增加对于jump和label的提示，禁止死循环</t>
   </si>
 </sst>
 </file>
@@ -244,14 +256,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Avenir Next"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Avenir Next Demi Bold"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -265,8 +284,22 @@
       <name val="Avenir Next Demi Bold"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Avenir Next Demi Bold"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Avenir Next Demi Bold"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +310,28 @@
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -479,28 +534,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -524,71 +574,114 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1944,31 +2037,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="19.83203125" style="1" customWidth="1"/>
-    <col min="8" max="258" width="8.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="19.85546875" style="1" customWidth="1"/>
+    <col min="8" max="258" width="8.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1989,946 +2083,973 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A3" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A4" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A5" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:7" ht="36" customHeight="1">
+      <c r="A6" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A7" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="12" t="s">
+      <c r="D7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="7" t="s">
+    <row r="8" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A8" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11" t="s">
+    <row r="9" spans="1:7" ht="33.950000000000003" customHeight="1">
+      <c r="A9" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="12" t="s">
+      <c r="D9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="7" t="s">
+    <row r="10" spans="1:7" ht="33.75" customHeight="1">
+      <c r="A10" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11" t="s">
+    <row r="11" spans="1:7" ht="33.75" customHeight="1">
+      <c r="A11" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="12" t="s">
+      <c r="D11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="7" t="s">
+    <row r="12" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A12" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
+    <row r="13" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A13" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="12" t="s">
+      <c r="D13" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A14" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A15" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="12" t="s">
+      <c r="D15" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="7" t="s">
+    <row r="16" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A16" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="29" t="s">
+      <c r="D16" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11" t="s">
+    <row r="17" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A17" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="30" t="s">
+      <c r="D17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="7" t="s">
+    <row r="18" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A18" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="30" t="s">
+      <c r="D18" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11" t="s">
+    <row r="19" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A19" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="31" t="s">
+      <c r="D19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="7" t="s">
+    <row r="20" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A20" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="30" t="s">
+      <c r="D20" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11" t="s">
+    <row r="21" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A21" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="31" t="s">
+      <c r="D21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="7" t="s">
+    <row r="22" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A22" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="30" t="s">
+      <c r="D22" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11" t="s">
+    <row r="23" spans="1:7" ht="21.95" customHeight="1">
+      <c r="A23" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="31" t="s">
+      <c r="D23" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11" t="s">
+    <row r="24" spans="1:7" ht="24" customHeight="1">
+      <c r="A24" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="30" t="s">
+      <c r="D24" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="7" t="s">
+    <row r="25" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A25" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="30" t="s">
+      <c r="D25" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27" s="18" t="s">
+    <row r="26" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A26" s="41"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A27" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="30" t="s">
+      <c r="D27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11" t="s">
+    <row r="28" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A28" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="31" t="s">
+      <c r="D28" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="7" t="s">
+    <row r="29" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A29" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="30" t="s">
+      <c r="D29" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18" t="s">
+    <row r="30" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A30" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="31" t="s">
+      <c r="D30" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18" t="s">
+    <row r="31" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A31" s="41"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A32" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="30" t="s">
+      <c r="D32" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23" t="s">
+    <row r="33" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A33" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="32" t="s">
+      <c r="D33" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23" t="s">
+    <row r="34" spans="1:7" ht="22.7" customHeight="1">
+      <c r="A34" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="33" t="s">
+      <c r="D34" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20" t="s">
+      <c r="F34" s="36"/>
+      <c r="G34" s="37" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="7" t="s">
+    <row r="35" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A35" s="42"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
+    </row>
+    <row r="36" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A36" s="42"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="37"/>
+    </row>
+    <row r="37" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A37" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="21" t="s">
+      <c r="D37" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="7" t="s">
+    <row r="38" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A38" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="24" t="s">
+      <c r="D38" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11" t="s">
+    <row r="39" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A39" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="24" t="s">
+      <c r="D39" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="8" t="s">
+    <row r="40" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A40" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="24" t="s">
+      <c r="D40" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23" t="s">
+    <row r="41" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A41" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="24" t="s">
+      <c r="D41" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23" t="s">
+    <row r="42" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A42" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="24" t="s">
+      <c r="D42" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23" t="s">
+    <row r="43" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A43" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="24" t="s">
+      <c r="D43" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="b">
-        <v>0</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23" t="s">
+    <row r="44" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A44" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="24" t="s">
+      <c r="D44" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-    </row>
-    <row r="48" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+    <row r="45" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A45" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A46" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A47" s="42"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+    </row>
+    <row r="48" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A48" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-    </row>
-    <row r="49" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="7" t="s">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A49" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="8" t="s">
+      <c r="E50" s="11"/>
+      <c r="F50" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11" t="s">
+    <row r="51" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A51" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="12" t="s">
+      <c r="E51" s="12"/>
+      <c r="F51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="G51" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="7" t="s">
+    <row r="52" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="8" t="s">
+      <c r="E52" s="11"/>
+      <c r="F52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+    <row r="56" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A56" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-    </row>
-    <row r="57" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11" t="s">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A57" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="12" t="s">
+      <c r="E57" s="12"/>
+      <c r="F57" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="G57" s="9" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Documents/Project Manage/Task Check List.xlsx
+++ b/Documents/Project Manage/Task Check List.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProjects\Hippocampus\Documents\Project Manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E10830-0A3B-4F12-9853-CD95C5F7D0B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BD3C5C-16AC-4D1D-81E7-9BABE45B26B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3735" yWindow="930" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist - Task Checklist（S1，S" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="77">
   <si>
     <t>Task Checklist（S1，S2MUST，S3，S4，S5 Should，S6—— Can）</t>
   </si>
@@ -249,6 +257,12 @@
   </si>
   <si>
     <t>Editor，增加对于jump和label的提示，禁止死循环</t>
+  </si>
+  <si>
+    <t>Editor，重构窗口架构，提供一个基类，方便未来窗口类开发</t>
+  </si>
+  <si>
+    <t>Progressing</t>
   </si>
 </sst>
 </file>
@@ -258,12 +272,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Avenir Next"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Avenir Next Demi Bold"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -538,19 +559,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -583,97 +604,103 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2035,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX57"/>
+  <dimension ref="A1:IX61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -2052,15 +2079,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -2084,980 +2111,1028 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A3" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21" t="s">
+      <c r="D3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A4" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24" t="s">
+      <c r="D4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A5" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="22" t="s">
+      <c r="A5" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1">
-      <c r="A6" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24" t="s">
+      <c r="D6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A7" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24" t="s">
+      <c r="D7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A8" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="22" t="s">
+      <c r="A8" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="33.950000000000003" customHeight="1">
-      <c r="A9" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="22" t="s">
+      <c r="A9" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24" t="s">
+      <c r="D9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A10" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="22" t="s">
+      <c r="A10" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24" t="s">
+      <c r="D10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A11" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="22" t="s">
+      <c r="A11" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24" t="s">
+      <c r="D11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A12" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24" t="s">
+      <c r="D12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A13" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="22" t="s">
+      <c r="A13" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24" t="s">
+      <c r="D13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A14" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="22" t="s">
+      <c r="A14" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24" t="s">
+      <c r="D14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A15" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="22" t="s">
+      <c r="A15" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24" t="s">
+      <c r="D15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A16" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="22" t="s">
+      <c r="A16" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="26" t="s">
+      <c r="D16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A17" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28" t="s">
+      <c r="A17" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="29" t="s">
+      <c r="D17" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="29" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A18" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28" t="s">
+      <c r="A18" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="29" t="s">
+      <c r="D18" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A19" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28" t="s">
+      <c r="A19" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="29" t="s">
+      <c r="D19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A20" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="29" t="s">
+      <c r="D20" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A21" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28" t="s">
+      <c r="A21" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="29" t="s">
+      <c r="D21" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A22" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28" t="s">
+      <c r="A22" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="29" t="s">
+      <c r="D22" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A23" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28" t="s">
+      <c r="A23" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="29" t="s">
+      <c r="D23" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="24" customHeight="1">
-      <c r="A24" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28" t="s">
+      <c r="A24" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="29" t="s">
+      <c r="D24" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A25" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28" t="s">
+      <c r="A25" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="29" t="s">
+      <c r="D25" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A27" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34" t="s">
+      <c r="A27" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="29" t="s">
+      <c r="D27" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A28" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28" t="s">
+      <c r="A28" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="29" t="s">
+      <c r="D28" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A29" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28" t="s">
+      <c r="A29" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="29" t="s">
+      <c r="D29" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A30" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34" t="s">
+      <c r="A30" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="29" t="s">
+      <c r="D30" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A31" s="41"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="33"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A32" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34" t="s">
+      <c r="A32" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="29" t="s">
+      <c r="D32" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A33" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35" t="s">
+      <c r="A33" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="36" t="s">
+      <c r="D33" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="35" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A34" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35" t="s">
+      <c r="A34" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="38" t="s">
+      <c r="D34" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37" t="s">
+      <c r="F34" s="34"/>
+      <c r="G34" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A35" s="42"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
     </row>
     <row r="36" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="37"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="35"/>
     </row>
     <row r="37" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A37" s="43" t="b">
+      <c r="A37" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="15" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="18" t="s">
+      <c r="D37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A38" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28" t="s">
+      <c r="A38" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="39" t="s">
+      <c r="D38" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="39" t="s">
+      <c r="G38" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A39" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="28" t="s">
+      <c r="A39" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="39" t="s">
+      <c r="D39" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="G39" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A40" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30" t="s">
+      <c r="A40" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="39" t="s">
+      <c r="D40" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="39" t="s">
+      <c r="G40" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A41" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35" t="s">
+      <c r="A41" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="39" t="s">
+      <c r="D41" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="39" t="s">
+      <c r="G41" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A42" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35" t="s">
+      <c r="A42" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="39" t="s">
+      <c r="D42" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="39" t="s">
+      <c r="G42" s="37" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A43" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35" t="s">
+      <c r="A43" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="39" t="s">
+      <c r="D43" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="39" t="s">
+      <c r="G43" s="37" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A44" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35" t="s">
+      <c r="A44" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="39" t="s">
+      <c r="D44" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="39" t="s">
+      <c r="G44" s="37" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A45" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35" t="s">
+      <c r="A45" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="39" t="s">
+      <c r="D45" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="30" t="s">
+      <c r="F45" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G45" s="39" t="s">
+      <c r="G45" s="37" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A46" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35" t="s">
+      <c r="A46" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="39" t="s">
+      <c r="D46" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="39" t="s">
+      <c r="F46" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="39" t="s">
+      <c r="G46" s="37" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A47" s="42"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-    </row>
-    <row r="48" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A48" s="14" t="s">
+      <c r="A47" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="B47" s="33"/>
+      <c r="C47" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A48" s="40"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+    </row>
+    <row r="49" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A49" s="40"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+    </row>
+    <row r="50" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A50" s="40"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+    </row>
+    <row r="51" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A51" s="40"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+    </row>
+    <row r="52" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A52" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-    </row>
-    <row r="49" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A49" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A50" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="4" t="s">
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+    </row>
+    <row r="53" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A53" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="5" t="s">
+      <c r="E54" s="11"/>
+      <c r="F54" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A51" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8" t="s">
+    <row r="55" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A55" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D55" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="9" t="s">
+      <c r="E55" s="12"/>
+      <c r="F55" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G55" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A52" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="4" t="s">
+    <row r="56" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="5" t="s">
+      <c r="E56" s="11"/>
+      <c r="F56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A56" s="13" t="s">
+    <row r="60" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A60" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-    </row>
-    <row r="57" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A57" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8" t="s">
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+    </row>
+    <row r="61" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A61" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D61" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="9" t="s">
+      <c r="E61" s="12"/>
+      <c r="F61" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G61" s="9" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A60:G60"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1"/>

--- a/Documents/Project Manage/Task Check List.xlsx
+++ b/Documents/Project Manage/Task Check List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProjects\Hippocampus\Documents\Project Manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BD3C5C-16AC-4D1D-81E7-9BABE45B26B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F45A2-BE7D-4C94-A82B-79262AA5D3D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3735" yWindow="930" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist - Task Checklist（S1，S" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="77">
-  <si>
-    <t>Task Checklist（S1，S2MUST，S3，S4，S5 Should，S6—— Can）</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -123,15 +120,6 @@
     <t>对话环节的天气变化</t>
   </si>
   <si>
-    <t>Estimated Time</t>
-  </si>
-  <si>
-    <t>Artist Task Checklist</t>
-  </si>
-  <si>
-    <t>Designer Task Checklist</t>
-  </si>
-  <si>
     <t>Unity，剧情分支，选项，实现label和jump这两个node的功能</t>
   </si>
   <si>
@@ -174,24 +162,9 @@
     <t>Unity，声音系统，固定音量播放</t>
   </si>
   <si>
-    <t>4h</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>6h</t>
-  </si>
-  <si>
     <t>Unity，镜头控制，跟着角色移动</t>
   </si>
   <si>
-    <t>10h</t>
-  </si>
-  <si>
-    <t>0h</t>
-  </si>
-  <si>
     <t>Unity，剧情数据结构，json读取，在UI上显示基础对话，只显示名字和内容</t>
   </si>
   <si>
@@ -202,9 +175,6 @@
   </si>
   <si>
     <t>Unity，UI框架，提供显示提示框，对话框，选择框和漂浮选择框</t>
-  </si>
-  <si>
-    <t>8h</t>
   </si>
   <si>
     <t>Unity，文字控制符，Tips功能，当运行到这个字的时候提示加入到Tips中，Tips显示功能，作为设置的一个选项</t>
@@ -263,6 +233,30 @@
   </si>
   <si>
     <t>Progressing</t>
+  </si>
+  <si>
+    <t>Task Cecklist（S1，S2MUST，S3，S4，S5 Sould，S6—— Can）</t>
+  </si>
+  <si>
+    <t>Artist Task Cecklist</t>
+  </si>
+  <si>
+    <t>Designer Task Cecklist</t>
+  </si>
+  <si>
+    <t>Estimated Time(/h)</t>
+  </si>
+  <si>
+    <t>180‬</t>
+  </si>
+  <si>
+    <t>Spent Time(/h)</t>
+  </si>
+  <si>
+    <t>Unity，输入系统，提供虚拟摇杆，手柄，PC输入</t>
+  </si>
+  <si>
+    <t>P5</t>
   </si>
 </sst>
 </file>
@@ -272,12 +266,26 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Avenir Next"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Avenir Next Demi Bold"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Avenir Next Demi Bold"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -315,6 +323,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Avenir Next Demi Bold"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Avenir Next Demi Bold"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -559,19 +575,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -604,103 +620,139 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2064,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -2075,960 +2127,1014 @@
     <col min="3" max="3" width="64.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" style="1" customWidth="1"/>
     <col min="5" max="7" width="19.85546875" style="1" customWidth="1"/>
-    <col min="8" max="258" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
+    <col min="9" max="258" width="8.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="1:7" ht="22.5" customHeight="1">
+    <row r="1" spans="1:8" ht="30" customHeight="1">
+      <c r="A1" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:8" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A3" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A3" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A4" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A4" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A5" s="39" t="b">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A5" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>11</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="36" customHeight="1">
-      <c r="A6" s="39" t="b">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="36" customHeight="1">
+      <c r="A6" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A7" s="39" t="b">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A7" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30.95" customHeight="1">
-      <c r="A8" s="39" t="b">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30.95" customHeight="1">
+      <c r="A8" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="33.950000000000003" customHeight="1">
-      <c r="A9" s="39" t="b">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="33.950000000000003" customHeight="1">
+      <c r="A9" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A10" s="39" t="b">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A10" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A11" s="39" t="b">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A11" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A12" s="39" t="b">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A12" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A13" s="39" t="b">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A13" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A14" s="39" t="b">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A14" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A15" s="39" t="b">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A15" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A16" s="39" t="b">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A16" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A17" s="39" t="b">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A17" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="42">
+        <v>2</v>
+      </c>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A18" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="F18" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A18" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A19" s="39" t="b">
+      <c r="G18" s="57">
+        <v>4</v>
+      </c>
+      <c r="H18" s="57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A19" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D19" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A20" s="39" t="b">
+      <c r="G19" s="43">
+        <v>6</v>
+      </c>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A20" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="26" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D20" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A21" s="39" t="b">
+      <c r="G20" s="43">
+        <v>2</v>
+      </c>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A21" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D21" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A22" s="39" t="b">
+      <c r="G21" s="43">
+        <v>6</v>
+      </c>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A22" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D22" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A23" s="39" t="b">
+      <c r="G22" s="43">
+        <v>10</v>
+      </c>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A23" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D23" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="24" customHeight="1">
-      <c r="A24" s="39" t="b">
+      <c r="G23" s="43">
+        <v>0</v>
+      </c>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="1:8" ht="24" customHeight="1">
+      <c r="A24" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B24" s="25"/>
-      <c r="C24" s="26" t="s">
-        <v>34</v>
+      <c r="C24" s="54" t="s">
+        <v>30</v>
       </c>
       <c r="D24" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A25" s="39" t="b">
+      <c r="G24" s="43">
+        <v>6</v>
+      </c>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A25" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="26" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D25" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A26" s="39"/>
+      <c r="G25" s="43">
+        <v>4</v>
+      </c>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A26" s="36"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="31"/>
-    </row>
-    <row r="27" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A27" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32" t="s">
-        <v>35</v>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+    </row>
+    <row r="27" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A27" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="D27" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A28" s="39" t="b">
+      <c r="G27" s="43">
+        <v>4</v>
+      </c>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A28" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D28" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A29" s="39" t="b">
+      <c r="G28" s="43">
+        <v>4</v>
+      </c>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A29" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D29" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="28" t="s">
+      <c r="G29" s="43">
+        <v>4</v>
+      </c>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A30" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="43">
         <v>8</v>
       </c>
-      <c r="G29" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A30" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
+      <c r="H30" s="43"/>
+    </row>
+    <row r="31" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A31" s="36"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="26"/>
       <c r="E31" s="27"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="31"/>
-    </row>
-    <row r="32" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A32" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32" t="s">
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+    </row>
+    <row r="32" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A32" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="43">
+        <v>6</v>
+      </c>
+      <c r="H32" s="43"/>
+    </row>
+    <row r="33" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A33" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="45">
+        <v>2</v>
+      </c>
+      <c r="H33" s="45"/>
+    </row>
+    <row r="34" spans="1:8" ht="22.7" customHeight="1">
+      <c r="A34" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A33" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="22.7" customHeight="1">
-      <c r="A34" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A35" s="40"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A36" s="40"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
-    </row>
-    <row r="37" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A37" s="41" t="b">
+      <c r="F34" s="32"/>
+      <c r="G34" s="45">
+        <v>4</v>
+      </c>
+      <c r="H34" s="45"/>
+    </row>
+    <row r="35" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A35" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="45">
+        <v>10</v>
+      </c>
+      <c r="H35" s="45"/>
+    </row>
+    <row r="36" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A36" s="37"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A37" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B37" s="15"/>
       <c r="C37" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D37" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A38" s="39" t="b">
+      <c r="G37" s="46">
+        <v>4</v>
+      </c>
+      <c r="H37" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A38" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D38" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A39" s="39" t="b">
+      <c r="G38" s="47">
+        <v>2</v>
+      </c>
+      <c r="H38" s="47"/>
+    </row>
+    <row r="39" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A39" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="47">
+        <v>2</v>
+      </c>
+      <c r="H39" s="47"/>
+    </row>
+    <row r="40" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A40" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="47">
+        <v>2</v>
+      </c>
+      <c r="H40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A41" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="47">
+        <v>2</v>
+      </c>
+      <c r="H41" s="47"/>
+    </row>
+    <row r="42" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A42" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D42" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="G42" s="47">
+        <v>4</v>
+      </c>
+      <c r="H42" s="47"/>
+    </row>
+    <row r="43" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A43" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="47">
+        <v>10</v>
+      </c>
+      <c r="H43" s="47"/>
+    </row>
+    <row r="44" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A44" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="47">
+        <v>4</v>
+      </c>
+      <c r="H44" s="47"/>
+    </row>
+    <row r="45" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A45" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="47">
+        <v>6</v>
+      </c>
+      <c r="H45" s="47"/>
+    </row>
+    <row r="46" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A46" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A40" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A41" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A42" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A43" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A44" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33" t="s">
+      <c r="D46" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="47">
+        <v>6</v>
+      </c>
+      <c r="H46" s="47"/>
+    </row>
+    <row r="47" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A47" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="B47" s="31"/>
+      <c r="C47" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A45" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33" t="s">
+      <c r="D47" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="48">
+        <v>6</v>
+      </c>
+      <c r="H47" s="48"/>
+    </row>
+    <row r="48" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A48" s="37"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="49">
+        <f>SUM(G17:G47)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A49" s="37"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="G45" s="37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A46" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A47" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A48" s="40"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-    </row>
-    <row r="49" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A49" s="40"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
     </row>
     <row r="50" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A50" s="40"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="41"/>
     </row>
     <row r="51" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A51" s="40"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
     </row>
     <row r="52" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A52" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
+      <c r="A52" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
     </row>
     <row r="53" spans="1:7" ht="21.75" customHeight="1">
       <c r="A53" s="6" t="b">
@@ -3047,17 +3153,17 @@
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="21.75" customHeight="1">
@@ -3066,17 +3172,17 @@
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="21.75" customHeight="1">
@@ -3085,29 +3191,29 @@
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A60" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
+      <c r="A60" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
     </row>
     <row r="61" spans="1:7" ht="21.75" customHeight="1">
       <c r="A61" s="6" t="b">
@@ -3115,17 +3221,17 @@
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3135,10 +3241,10 @@
     <mergeCell ref="A60:G60"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documents/Project Manage/Task Check List.xlsx
+++ b/Documents/Project Manage/Task Check List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProjects\Hippocampus\Documents\Project Manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F45A2-BE7D-4C94-A82B-79262AA5D3D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEC8970-E19F-46D7-AFAC-D59E539ED878}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -257,6 +257,24 @@
   </si>
   <si>
     <t>P5</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>All Task Estimated Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All time we have</t>
   </si>
 </sst>
 </file>
@@ -266,12 +284,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Avenir Next"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Avenir Next Demi Bold"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -334,6 +359,13 @@
       <name val="Avenir Next Demi Bold"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Avenir Next"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -575,19 +607,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,139 +652,151 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2116,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -2132,15 +2176,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -2443,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="25"/>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="58" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="26" t="s">
@@ -2471,16 +2515,16 @@
       <c r="D18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="57">
+      <c r="G18" s="55">
         <v>4</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="55">
         <v>6</v>
       </c>
     </row>
@@ -2533,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="58" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="26" t="s">
@@ -2555,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="25"/>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="58" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="26" t="s">
@@ -2599,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="25"/>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="52" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="26" t="s">
@@ -2621,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="58" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="26" t="s">
@@ -2751,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="30"/>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="59" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="26" t="s">
@@ -2815,13 +2859,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="31"/>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="50" t="s">
         <v>73</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="51" t="s">
         <v>74</v>
       </c>
       <c r="F35" s="32"/>
@@ -3090,10 +3134,16 @@
       <c r="C48" s="40"/>
       <c r="D48" s="31"/>
       <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
+      <c r="F48" s="61" t="s">
+        <v>79</v>
+      </c>
       <c r="G48" s="49">
         <f>SUM(G17:G47)</f>
         <v>130</v>
+      </c>
+      <c r="H48" s="60">
+        <f>SUM(H18:H47)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="22.5" customHeight="1">
@@ -3102,7 +3152,9 @@
       <c r="C49" s="40"/>
       <c r="D49" s="31"/>
       <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
+      <c r="F49" s="61" t="s">
+        <v>80</v>
+      </c>
       <c r="G49" s="41" t="s">
         <v>71</v>
       </c>
@@ -3126,15 +3178,15 @@
       <c r="G51" s="34"/>
     </row>
     <row r="52" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
     </row>
     <row r="53" spans="1:7" ht="21.75" customHeight="1">
       <c r="A53" s="6" t="b">
@@ -3205,15 +3257,15 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
     </row>
     <row r="61" spans="1:7" ht="21.75" customHeight="1">
       <c r="A61" s="6" t="b">

--- a/Documents/Project Manage/Task Check List.xlsx
+++ b/Documents/Project Manage/Task Check List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProjects\Hippocampus\Documents\Project Manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEC8970-E19F-46D7-AFAC-D59E539ED878}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6230C80-C082-49EC-9F15-FD1989364A07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Estimated Time(/h)</t>
   </si>
   <si>
-    <t>180‬</t>
-  </si>
-  <si>
     <t>Spent Time(/h)</t>
   </si>
   <si>
@@ -259,22 +256,43 @@
     <t>P5</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>All Task Estimated Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> All time we have</t>
+    <t>Wen Yangwei</t>
+  </si>
+  <si>
+    <t>All Task Estimated Time总任务预计时间</t>
+  </si>
+  <si>
+    <t>All time we have总工作时长</t>
+  </si>
+  <si>
+    <t>Current Spent Time当前消耗时间</t>
+  </si>
+  <si>
+    <t>Current time percentage 时间百分比(%)</t>
+  </si>
+  <si>
+    <t>Estimated Time Rate   预计时间比</t>
+  </si>
+  <si>
+    <t>Current Time Rate  目前时间比</t>
+  </si>
+  <si>
+    <t>Expected total required length according to current time rate</t>
+  </si>
+  <si>
+    <t>Overtime超时</t>
+  </si>
+  <si>
+    <t>Kong Weihang</t>
+  </si>
+  <si>
+    <t>Zhang Jinze</t>
+  </si>
+  <si>
+    <t>Current Finished Task Actually Time当前完成的任务时间</t>
+  </si>
+  <si>
+    <t>Current Finished And Progressing Task Estimated Time当前结束的和进行中的任务所预期的时间</t>
   </si>
 </sst>
 </file>
@@ -284,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -353,22 +371,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Avenir Next Demi Bold"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Avenir Next Demi Bold"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Avenir Next"/>
-      <charset val="134"/>
+      <name val="Avenir Next Demi Bold"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,8 +425,19 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -590,20 +623,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="dotted">
-        <color indexed="12"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="dotted">
-        <color indexed="12"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -611,8 +661,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -733,15 +785,6 @@
     <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -757,28 +800,25 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -787,24 +827,65 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="14" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="14" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - Accent4" xfId="6" builtinId="42"/>
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="5" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1002,8 +1083,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>369919</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2158,33 +2239,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX61"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IX64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:G53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="64.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="19.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
     <col min="9" max="258" width="8.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1">
       <c r="A2" s="2"/>
@@ -2207,7 +2292,7 @@
         <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.7" customHeight="1">
@@ -2483,26 +2568,26 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.7" customHeight="1">
-      <c r="A17" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="58" t="s">
+      <c r="A17" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="70"/>
+      <c r="C17" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="68">
         <v>2</v>
       </c>
-      <c r="H17" s="42"/>
+      <c r="H17" s="68"/>
     </row>
     <row r="18" spans="1:8" ht="22.7" customHeight="1">
       <c r="A18" s="38" t="b">
@@ -2513,18 +2598,18 @@
         <v>39</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="50">
         <v>4</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="50">
         <v>6</v>
       </c>
     </row>
@@ -2545,10 +2630,10 @@
       <c r="F19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="43">
-        <v>6</v>
-      </c>
-      <c r="H19" s="43"/>
+      <c r="G19" s="40">
+        <v>6</v>
+      </c>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="1:8" ht="22.7" customHeight="1">
       <c r="A20" s="36" t="b">
@@ -2567,17 +2652,17 @@
       <c r="F20" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="40">
         <v>2</v>
       </c>
-      <c r="H20" s="43"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" ht="22.7" customHeight="1">
       <c r="A21" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="26" t="s">
@@ -2589,32 +2674,32 @@
       <c r="F21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="43">
-        <v>6</v>
-      </c>
-      <c r="H21" s="43"/>
-    </row>
-    <row r="22" spans="1:8" ht="22.7" customHeight="1">
-      <c r="A22" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="58" t="s">
+      <c r="G21" s="40">
+        <v>6</v>
+      </c>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A22" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="70"/>
+      <c r="C22" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="27" t="s">
+      <c r="D22" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="68">
         <v>10</v>
       </c>
-      <c r="H22" s="43"/>
+      <c r="H22" s="68"/>
     </row>
     <row r="23" spans="1:8" ht="21.95" customHeight="1">
       <c r="A23" s="36" t="b">
@@ -2633,17 +2718,17 @@
       <c r="F23" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="43">
-        <v>0</v>
-      </c>
-      <c r="H23" s="43"/>
+      <c r="G23" s="40">
+        <v>0</v>
+      </c>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:8" ht="24" customHeight="1">
       <c r="A24" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B24" s="25"/>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="47" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="26" t="s">
@@ -2655,17 +2740,17 @@
       <c r="F24" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="43">
-        <v>6</v>
-      </c>
-      <c r="H24" s="43"/>
-    </row>
-    <row r="25" spans="1:8" ht="22.7" customHeight="1">
+      <c r="G24" s="40">
+        <v>6</v>
+      </c>
+      <c r="H24" s="40"/>
+    </row>
+    <row r="25" spans="1:8" ht="36" customHeight="1">
       <c r="A25" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="26" t="s">
@@ -2677,10 +2762,10 @@
       <c r="F25" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="40">
         <v>4</v>
       </c>
-      <c r="H25" s="43"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:8" ht="22.7" customHeight="1">
       <c r="A26" s="36"/>
@@ -2689,8 +2774,8 @@
       <c r="D26" s="26"/>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="1:8" ht="22.7" customHeight="1">
       <c r="A27" s="36" t="b">
@@ -2709,10 +2794,10 @@
       <c r="F27" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="40">
         <v>4</v>
       </c>
-      <c r="H27" s="43"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" ht="22.7" customHeight="1">
       <c r="A28" s="36" t="b">
@@ -2731,10 +2816,10 @@
       <c r="F28" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="43">
+      <c r="G28" s="40">
         <v>4</v>
       </c>
-      <c r="H28" s="43"/>
+      <c r="H28" s="40"/>
     </row>
     <row r="29" spans="1:8" ht="22.7" customHeight="1">
       <c r="A29" s="36" t="b">
@@ -2753,10 +2838,10 @@
       <c r="F29" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="40">
         <v>4</v>
       </c>
-      <c r="H29" s="43"/>
+      <c r="H29" s="40"/>
     </row>
     <row r="30" spans="1:8" ht="22.7" customHeight="1">
       <c r="A30" s="36" t="b">
@@ -2775,10 +2860,10 @@
       <c r="F30" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="40">
         <v>8</v>
       </c>
-      <c r="H30" s="43"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:8" ht="22.7" customHeight="1">
       <c r="A31" s="36"/>
@@ -2787,30 +2872,30 @@
       <c r="D31" s="26"/>
       <c r="E31" s="27"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" ht="22.7" customHeight="1">
-      <c r="A32" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="59" t="s">
+      <c r="A32" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="27" t="s">
+      <c r="D32" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="43">
-        <v>6</v>
-      </c>
-      <c r="H32" s="43"/>
+      <c r="G32" s="68">
+        <v>6</v>
+      </c>
+      <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="22.7" customHeight="1">
       <c r="A33" s="36" t="b">
@@ -2829,10 +2914,10 @@
       <c r="F33" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="45">
+      <c r="G33" s="42">
         <v>2</v>
       </c>
-      <c r="H33" s="45"/>
+      <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:8" ht="22.7" customHeight="1">
       <c r="A34" s="37" t="b">
@@ -2849,30 +2934,30 @@
         <v>54</v>
       </c>
       <c r="F34" s="32"/>
-      <c r="G34" s="45">
+      <c r="G34" s="42">
         <v>4</v>
       </c>
-      <c r="H34" s="45"/>
+      <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" ht="22.5" customHeight="1">
       <c r="A35" s="37" t="b">
         <v>0</v>
       </c>
       <c r="B35" s="31"/>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>74</v>
-      </c>
       <c r="F35" s="32"/>
-      <c r="G35" s="45">
+      <c r="G35" s="42">
         <v>10</v>
       </c>
-      <c r="H35" s="45"/>
+      <c r="H35" s="42"/>
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1">
       <c r="A36" s="37"/>
@@ -2881,8 +2966,8 @@
       <c r="D36" s="31"/>
       <c r="E36" s="34"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
     </row>
     <row r="37" spans="1:8" ht="22.5" customHeight="1">
       <c r="A37" s="38" t="b">
@@ -2893,7 +2978,7 @@
         <v>32</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>53</v>
@@ -2901,10 +2986,10 @@
       <c r="F37" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="43">
         <v>4</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="43">
         <v>4</v>
       </c>
     </row>
@@ -2925,10 +3010,10 @@
       <c r="F38" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="47">
+      <c r="G38" s="44">
         <v>2</v>
       </c>
-      <c r="H38" s="47"/>
+      <c r="H38" s="44"/>
     </row>
     <row r="39" spans="1:8" ht="22.5" customHeight="1">
       <c r="A39" s="36" t="b">
@@ -2947,10 +3032,10 @@
       <c r="F39" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="47">
+      <c r="G39" s="44">
         <v>2</v>
       </c>
-      <c r="H39" s="47"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" ht="22.5" customHeight="1">
       <c r="A40" s="36" t="b">
@@ -2969,10 +3054,10 @@
       <c r="F40" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="47">
+      <c r="G40" s="44">
         <v>2</v>
       </c>
-      <c r="H40" s="47"/>
+      <c r="H40" s="44"/>
     </row>
     <row r="41" spans="1:8" ht="22.5" customHeight="1">
       <c r="A41" s="36" t="b">
@@ -2991,10 +3076,10 @@
       <c r="F41" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="47">
+      <c r="G41" s="44">
         <v>2</v>
       </c>
-      <c r="H41" s="47"/>
+      <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:8" ht="22.5" customHeight="1">
       <c r="A42" s="36" t="b">
@@ -3013,32 +3098,32 @@
       <c r="F42" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="47">
+      <c r="G42" s="44">
         <v>4</v>
       </c>
-      <c r="H42" s="47"/>
+      <c r="H42" s="44"/>
     </row>
     <row r="43" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31" t="s">
+      <c r="B43" s="67"/>
+      <c r="C43" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="34" t="s">
+      <c r="D43" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="F43" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="47">
+      <c r="G43" s="68">
         <v>10</v>
       </c>
-      <c r="H43" s="47"/>
+      <c r="H43" s="68"/>
     </row>
     <row r="44" spans="1:8" ht="22.5" customHeight="1">
       <c r="A44" s="37" t="b">
@@ -3057,10 +3142,10 @@
       <c r="F44" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="47">
+      <c r="G44" s="44">
         <v>4</v>
       </c>
-      <c r="H44" s="47"/>
+      <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:8" ht="22.5" customHeight="1">
       <c r="A45" s="37" t="b">
@@ -3079,10 +3164,10 @@
       <c r="F45" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="47">
-        <v>6</v>
-      </c>
-      <c r="H45" s="47"/>
+      <c r="G45" s="44">
+        <v>6</v>
+      </c>
+      <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:8" ht="22.5" customHeight="1">
       <c r="A46" s="37" t="b">
@@ -3101,199 +3186,264 @@
       <c r="F46" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="47">
-        <v>6</v>
-      </c>
-      <c r="H46" s="47"/>
+      <c r="G46" s="44">
+        <v>6</v>
+      </c>
+      <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A47" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="40" t="s">
+      <c r="A47" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="34" t="s">
+      <c r="D47" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="34" t="s">
+      <c r="F47" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="48">
-        <v>6</v>
-      </c>
-      <c r="H47" s="48"/>
+      <c r="G47" s="68">
+        <v>6</v>
+      </c>
+      <c r="H47" s="68"/>
     </row>
     <row r="48" spans="1:8" ht="22.5" customHeight="1">
       <c r="A48" s="37"/>
       <c r="B48" s="31"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" s="49">
+      <c r="C48" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="58">
+        <f>E48/F48*100</f>
+        <v>42.5</v>
+      </c>
+      <c r="E48" s="56">
+        <f>34*3</f>
+        <v>102</v>
+      </c>
+      <c r="F48" s="57">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A49" s="37"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="34"/>
+    </row>
+    <row r="50" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A50" s="37"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="61">
         <f>SUM(G17:G47)</f>
         <v>130</v>
       </c>
-      <c r="H48" s="60">
-        <f>SUM(H18:H47)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A49" s="37"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G49" s="41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A50" s="37"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="41"/>
-    </row>
-    <row r="51" spans="1:7" ht="22.5" customHeight="1">
+      <c r="E50" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="63">
+        <f>D51/D50</f>
+        <v>1.8461538461538463</v>
+      </c>
+      <c r="G50" s="60"/>
+    </row>
+    <row r="51" spans="1:7" ht="44.25" customHeight="1">
       <c r="A51" s="37"/>
       <c r="B51" s="31"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-    </row>
-    <row r="52" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A52" s="57" t="s">
+      <c r="C51" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="61">
+        <f>3*4*20</f>
+        <v>240</v>
+      </c>
+      <c r="E51" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="63">
+        <f>D54/D53</f>
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="G51" s="60"/>
+    </row>
+    <row r="52" spans="1:7" ht="43.5" customHeight="1">
+      <c r="A52" s="37"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="61">
+        <f>SUM(H17:H47)</f>
+        <v>10</v>
+      </c>
+      <c r="E52" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="63">
+        <f>F51*(D50-D52)</f>
+        <v>291.42857142857139</v>
+      </c>
+      <c r="G52" s="60"/>
+    </row>
+    <row r="53" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A53" s="37"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="61">
+        <f>G37+G18+G43+G47+G32+G22+G17</f>
+        <v>42</v>
+      </c>
+      <c r="E53" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="63">
+        <f>F52-D51</f>
+        <v>51.428571428571388</v>
+      </c>
+      <c r="G53" s="60"/>
+    </row>
+    <row r="54" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A54" s="37"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="61">
+        <f>E48</f>
+        <v>102</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+    </row>
+    <row r="55" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A55" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-    </row>
-    <row r="53" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A53" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A54" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="4" t="s">
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+    </row>
+    <row r="56" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A56" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="5" t="s">
+      <c r="E57" s="11"/>
+      <c r="F57" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A55" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="8" t="s">
+    <row r="58" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A58" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="9" t="s">
+      <c r="E58" s="12"/>
+      <c r="F58" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G58" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A56" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="4" t="s">
+    <row r="59" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="5" t="s">
+      <c r="E59" s="11"/>
+      <c r="F59" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G59" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A60" s="56" t="s">
+    <row r="63" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A63" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-    </row>
-    <row r="61" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A61" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="8" t="s">
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+    </row>
+    <row r="64" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A64" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="9" t="s">
+      <c r="E64" s="12"/>
+      <c r="F64" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G64" s="9" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A63:G63"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.24" right="0.24" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
+  <pageSetup paperSize="9" scale="36" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Documents/Project Manage/Task Check List.xlsx
+++ b/Documents/Project Manage/Task Check List.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProjects\Hippocampus\Documents\Project Manage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cookie/Documents/UnityProjectFolder/Hippocampus/Documents/Project Manage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEC8970-E19F-46D7-AFAC-D59E539ED878}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD691022-CB58-1D47-AB88-69B25EBAE5A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31480" yWindow="2360" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist - Task Checklist（S1，S" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -259,22 +251,13 @@
     <t>P5</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>All Task Estimated Time</t>
   </si>
   <si>
     <t xml:space="preserve"> All time we have</t>
+  </si>
+  <si>
+    <t>=SUM(H37+H46)</t>
   </si>
 </sst>
 </file>
@@ -284,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -361,11 +344,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Avenir Next"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -612,7 +594,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -739,9 +721,6 @@
     <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -781,23 +760,29 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2160,33 +2145,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:G53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="21.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="19.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
-    <col min="9" max="258" width="8.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="19.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="9" max="258" width="8.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-    </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+    </row>
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2210,7 +2195,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22.7" customHeight="1">
+    <row r="3" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="b">
         <v>0</v>
       </c>
@@ -2231,7 +2216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="22.7" customHeight="1">
+    <row r="4" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="b">
         <v>0</v>
       </c>
@@ -2252,7 +2237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="22.7" customHeight="1">
+    <row r="5" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="b">
         <v>0</v>
       </c>
@@ -2271,7 +2256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="36" customHeight="1">
+    <row r="6" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="b">
         <v>0</v>
       </c>
@@ -2292,7 +2277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="22.7" customHeight="1">
+    <row r="7" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="b">
         <v>0</v>
       </c>
@@ -2311,7 +2296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30.95" customHeight="1">
+    <row r="8" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="b">
         <v>0</v>
       </c>
@@ -2330,7 +2315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33.950000000000003" customHeight="1">
+    <row r="9" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="b">
         <v>0</v>
       </c>
@@ -2349,7 +2334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33.75" customHeight="1">
+    <row r="10" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="b">
         <v>0</v>
       </c>
@@ -2368,7 +2353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.75" customHeight="1">
+    <row r="11" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="b">
         <v>0</v>
       </c>
@@ -2387,7 +2372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="22.7" customHeight="1">
+    <row r="12" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="b">
         <v>0</v>
       </c>
@@ -2406,7 +2391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="22.7" customHeight="1">
+    <row r="13" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="b">
         <v>0</v>
       </c>
@@ -2425,7 +2410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="22.7" customHeight="1">
+    <row r="14" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="b">
         <v>0</v>
       </c>
@@ -2444,7 +2429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="22.7" customHeight="1">
+    <row r="15" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="b">
         <v>0</v>
       </c>
@@ -2463,7 +2448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="22.7" customHeight="1">
+    <row r="16" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="b">
         <v>0</v>
       </c>
@@ -2482,29 +2467,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="22.7" customHeight="1">
-      <c r="A17" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="58" t="s">
+    <row r="17" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="58">
         <v>2</v>
       </c>
-      <c r="H17" s="42"/>
-    </row>
-    <row r="18" spans="1:8" ht="22.7" customHeight="1">
+      <c r="H17" s="58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="b">
         <v>1</v>
       </c>
@@ -2515,20 +2502,20 @@
       <c r="D18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="54">
         <v>4</v>
       </c>
-      <c r="H18" s="55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="22.7" customHeight="1">
+      <c r="H18" s="54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="b">
         <v>0</v>
       </c>
@@ -2545,12 +2532,12 @@
       <c r="F19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="43">
-        <v>6</v>
-      </c>
-      <c r="H19" s="43"/>
-    </row>
-    <row r="20" spans="1:8" ht="22.7" customHeight="1">
+      <c r="G19" s="42">
+        <v>6</v>
+      </c>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="b">
         <v>0</v>
       </c>
@@ -2567,17 +2554,17 @@
       <c r="F20" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="42">
         <v>2</v>
       </c>
-      <c r="H20" s="43"/>
-    </row>
-    <row r="21" spans="1:8" ht="22.7" customHeight="1">
+      <c r="H20" s="42"/>
+    </row>
+    <row r="21" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="55" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="26" t="s">
@@ -2589,17 +2576,17 @@
       <c r="F21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="43">
-        <v>6</v>
-      </c>
-      <c r="H21" s="43"/>
-    </row>
-    <row r="22" spans="1:8" ht="22.7" customHeight="1">
+      <c r="G21" s="42">
+        <v>6</v>
+      </c>
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B22" s="25"/>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="26" t="s">
@@ -2611,12 +2598,12 @@
       <c r="F22" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="42">
         <v>10</v>
       </c>
-      <c r="H22" s="43"/>
-    </row>
-    <row r="23" spans="1:8" ht="21.95" customHeight="1">
+      <c r="H22" s="42"/>
+    </row>
+    <row r="23" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="b">
         <v>0</v>
       </c>
@@ -2633,17 +2620,17 @@
       <c r="F23" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="43">
-        <v>0</v>
-      </c>
-      <c r="H23" s="43"/>
-    </row>
-    <row r="24" spans="1:8" ht="24" customHeight="1">
+      <c r="G23" s="42">
+        <v>0</v>
+      </c>
+      <c r="H23" s="42"/>
+    </row>
+    <row r="24" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B24" s="25"/>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="51" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="26" t="s">
@@ -2655,17 +2642,17 @@
       <c r="F24" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="43">
-        <v>6</v>
-      </c>
-      <c r="H24" s="43"/>
-    </row>
-    <row r="25" spans="1:8" ht="22.7" customHeight="1">
+      <c r="G24" s="42">
+        <v>6</v>
+      </c>
+      <c r="H24" s="42"/>
+    </row>
+    <row r="25" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="55" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="26" t="s">
@@ -2677,22 +2664,22 @@
       <c r="F25" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="42">
         <v>4</v>
       </c>
-      <c r="H25" s="43"/>
-    </row>
-    <row r="26" spans="1:8" ht="22.7" customHeight="1">
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-    </row>
-    <row r="27" spans="1:8" ht="22.7" customHeight="1">
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="b">
         <v>0</v>
       </c>
@@ -2709,12 +2696,12 @@
       <c r="F27" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="42">
         <v>4</v>
       </c>
-      <c r="H27" s="43"/>
-    </row>
-    <row r="28" spans="1:8" ht="22.7" customHeight="1">
+      <c r="H27" s="42"/>
+    </row>
+    <row r="28" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="b">
         <v>0</v>
       </c>
@@ -2731,12 +2718,12 @@
       <c r="F28" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="43">
+      <c r="G28" s="42">
         <v>4</v>
       </c>
-      <c r="H28" s="43"/>
-    </row>
-    <row r="29" spans="1:8" ht="22.7" customHeight="1">
+      <c r="H28" s="42"/>
+    </row>
+    <row r="29" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="b">
         <v>0</v>
       </c>
@@ -2753,12 +2740,12 @@
       <c r="F29" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="42">
         <v>4</v>
       </c>
-      <c r="H29" s="43"/>
-    </row>
-    <row r="30" spans="1:8" ht="22.7" customHeight="1">
+      <c r="H29" s="42"/>
+    </row>
+    <row r="30" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="b">
         <v>0</v>
       </c>
@@ -2775,27 +2762,27 @@
       <c r="F30" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="42">
         <v>8</v>
       </c>
-      <c r="H30" s="43"/>
-    </row>
-    <row r="31" spans="1:8" ht="22.7" customHeight="1">
+      <c r="H30" s="42"/>
+    </row>
+    <row r="31" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="26"/>
       <c r="E31" s="27"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-    </row>
-    <row r="32" spans="1:8" ht="22.7" customHeight="1">
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+    </row>
+    <row r="32" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="b">
         <v>0</v>
       </c>
       <c r="B32" s="30"/>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="56" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="26" t="s">
@@ -2807,12 +2794,12 @@
       <c r="F32" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="43">
-        <v>6</v>
-      </c>
-      <c r="H32" s="43"/>
-    </row>
-    <row r="33" spans="1:8" ht="22.7" customHeight="1">
+      <c r="G32" s="42">
+        <v>6</v>
+      </c>
+      <c r="H32" s="42"/>
+    </row>
+    <row r="33" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="b">
         <v>0</v>
       </c>
@@ -2829,12 +2816,12 @@
       <c r="F33" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="45">
+      <c r="G33" s="44">
         <v>2</v>
       </c>
-      <c r="H33" s="45"/>
-    </row>
-    <row r="34" spans="1:8" ht="22.7" customHeight="1">
+      <c r="H33" s="44"/>
+    </row>
+    <row r="34" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="b">
         <v>0</v>
       </c>
@@ -2849,42 +2836,42 @@
         <v>54</v>
       </c>
       <c r="F34" s="32"/>
-      <c r="G34" s="45">
+      <c r="G34" s="44">
         <v>4</v>
       </c>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" spans="1:8" ht="22.5" customHeight="1">
+      <c r="H34" s="44"/>
+    </row>
+    <row r="35" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="b">
         <v>0</v>
       </c>
       <c r="B35" s="31"/>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="49" t="s">
         <v>73</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="50" t="s">
         <v>74</v>
       </c>
       <c r="F35" s="32"/>
-      <c r="G35" s="45">
+      <c r="G35" s="44">
         <v>10</v>
       </c>
-      <c r="H35" s="45"/>
-    </row>
-    <row r="36" spans="1:8" ht="22.5" customHeight="1">
+      <c r="H35" s="44"/>
+    </row>
+    <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
       <c r="D36" s="31"/>
       <c r="E36" s="34"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-    </row>
-    <row r="37" spans="1:8" ht="22.5" customHeight="1">
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+    </row>
+    <row r="37" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="b">
         <v>1</v>
       </c>
@@ -2901,14 +2888,14 @@
       <c r="F37" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="45">
         <v>4</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="45">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="22.5" customHeight="1">
+    <row r="38" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="b">
         <v>0</v>
       </c>
@@ -2925,12 +2912,12 @@
       <c r="F38" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="47">
+      <c r="G38" s="46">
         <v>2</v>
       </c>
-      <c r="H38" s="47"/>
-    </row>
-    <row r="39" spans="1:8" ht="22.5" customHeight="1">
+      <c r="H38" s="46"/>
+    </row>
+    <row r="39" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="b">
         <v>0</v>
       </c>
@@ -2947,12 +2934,12 @@
       <c r="F39" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="47">
+      <c r="G39" s="46">
         <v>2</v>
       </c>
-      <c r="H39" s="47"/>
-    </row>
-    <row r="40" spans="1:8" ht="22.5" customHeight="1">
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="b">
         <v>0</v>
       </c>
@@ -2969,12 +2956,12 @@
       <c r="F40" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="47">
+      <c r="G40" s="46">
         <v>2</v>
       </c>
-      <c r="H40" s="47"/>
-    </row>
-    <row r="41" spans="1:8" ht="22.5" customHeight="1">
+      <c r="H40" s="46"/>
+    </row>
+    <row r="41" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="b">
         <v>0</v>
       </c>
@@ -2991,12 +2978,12 @@
       <c r="F41" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="47">
+      <c r="G41" s="46">
         <v>2</v>
       </c>
-      <c r="H41" s="47"/>
-    </row>
-    <row r="42" spans="1:8" ht="22.5" customHeight="1">
+      <c r="H41" s="46"/>
+    </row>
+    <row r="42" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="b">
         <v>0</v>
       </c>
@@ -3013,12 +3000,12 @@
       <c r="F42" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="47">
+      <c r="G42" s="46">
         <v>4</v>
       </c>
-      <c r="H42" s="47"/>
-    </row>
-    <row r="43" spans="1:8" ht="22.5" customHeight="1">
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>66</v>
       </c>
@@ -3035,12 +3022,12 @@
       <c r="F43" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="47">
+      <c r="G43" s="46">
         <v>10</v>
       </c>
-      <c r="H43" s="47"/>
-    </row>
-    <row r="44" spans="1:8" ht="22.5" customHeight="1">
+      <c r="H43" s="46"/>
+    </row>
+    <row r="44" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="b">
         <v>0</v>
       </c>
@@ -3057,12 +3044,12 @@
       <c r="F44" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="47">
+      <c r="G44" s="46">
         <v>4</v>
       </c>
-      <c r="H44" s="47"/>
-    </row>
-    <row r="45" spans="1:8" ht="22.5" customHeight="1">
+      <c r="H44" s="46"/>
+    </row>
+    <row r="45" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="b">
         <v>0</v>
       </c>
@@ -3079,12 +3066,12 @@
       <c r="F45" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="47">
-        <v>6</v>
-      </c>
-      <c r="H45" s="47"/>
-    </row>
-    <row r="46" spans="1:8" ht="22.5" customHeight="1">
+      <c r="G45" s="46">
+        <v>6</v>
+      </c>
+      <c r="H45" s="46"/>
+    </row>
+    <row r="46" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="b">
         <v>0</v>
       </c>
@@ -3101,12 +3088,12 @@
       <c r="F46" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="47">
-        <v>6</v>
-      </c>
-      <c r="H46" s="47"/>
-    </row>
-    <row r="47" spans="1:8" ht="22.5" customHeight="1">
+      <c r="G46" s="46">
+        <v>6</v>
+      </c>
+      <c r="H46" s="46"/>
+    </row>
+    <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="b">
         <v>0</v>
       </c>
@@ -3123,43 +3110,43 @@
       <c r="F47" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="48">
-        <v>6</v>
-      </c>
-      <c r="H47" s="48"/>
-    </row>
-    <row r="48" spans="1:8" ht="22.5" customHeight="1">
+      <c r="G47" s="47">
+        <v>6</v>
+      </c>
+      <c r="H47" s="47"/>
+    </row>
+    <row r="48" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="37"/>
       <c r="B48" s="31"/>
       <c r="C48" s="40"/>
       <c r="D48" s="31"/>
       <c r="E48" s="34"/>
-      <c r="F48" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" s="49">
+      <c r="F48" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="48">
         <f>SUM(G17:G47)</f>
         <v>130</v>
       </c>
-      <c r="H48" s="60">
-        <f>SUM(H18:H47)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="22.5" customHeight="1">
+      <c r="H48" s="62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
       <c r="B49" s="31"/>
       <c r="C49" s="40"/>
       <c r="D49" s="31"/>
       <c r="E49" s="34"/>
-      <c r="F49" s="61" t="s">
-        <v>80</v>
+      <c r="F49" s="57" t="s">
+        <v>76</v>
       </c>
       <c r="G49" s="41" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="22.5" customHeight="1">
+      <c r="H49" s="59"/>
+    </row>
+    <row r="50" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="37"/>
       <c r="B50" s="31"/>
       <c r="C50" s="40"/>
@@ -3168,7 +3155,7 @@
       <c r="F50" s="34"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:7" ht="22.5" customHeight="1">
+    <row r="51" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="37"/>
       <c r="B51" s="31"/>
       <c r="C51" s="40"/>
@@ -3177,18 +3164,18 @@
       <c r="F51" s="34"/>
       <c r="G51" s="34"/>
     </row>
-    <row r="52" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A52" s="57" t="s">
+    <row r="52" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-    </row>
-    <row r="53" spans="1:7" ht="21.75" customHeight="1">
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+    </row>
+    <row r="53" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="b">
         <v>0</v>
       </c>
@@ -3199,7 +3186,7 @@
       <c r="F53" s="12"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" ht="21.75" customHeight="1">
+    <row r="54" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="b">
         <v>0</v>
       </c>
@@ -3218,7 +3205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="21.75" customHeight="1">
+    <row r="55" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="b">
         <v>0</v>
       </c>
@@ -3237,7 +3224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="21.75" customHeight="1">
+    <row r="56" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="b">
         <v>0</v>
       </c>
@@ -3256,18 +3243,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A60" s="56" t="s">
+    <row r="60" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-    </row>
-    <row r="61" spans="1:7" ht="21.75" customHeight="1">
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+    </row>
+    <row r="61" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="b">
         <v>0</v>
       </c>

--- a/Documents/Project Manage/Task Check List.xlsx
+++ b/Documents/Project Manage/Task Check List.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="167">
   <si>
-    <t>Task Cecklist（S1，S2MUST，S3，S4，S5 Sould，S6—— Can）</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Status</t>
@@ -43,7 +43,7 @@
     <t>Spent Time(/h)</t>
   </si>
   <si>
-    <t>Open</t>
+    <t>Waiting For</t>
   </si>
   <si>
     <t>2020.01</t>
@@ -109,10 +109,19 @@
     <t>对话环节的天气变化</t>
   </si>
   <si>
-    <t>In Progress</t>
+    <t>Close</t>
   </si>
   <si>
-    <t>Unity，声音系统，固定音量播放</t>
+    <t>Unity，文字控制符，追问功能</t>
+  </si>
+  <si>
+    <t>Zhang Jinze</t>
+  </si>
+  <si>
+    <t>P4_SHOULD</t>
+  </si>
+  <si>
+    <t>Unity，从content中分析出标签</t>
   </si>
   <si>
     <t>Kong Weihang</t>
@@ -121,43 +130,250 @@
     <t>P1_MUST</t>
   </si>
   <si>
-    <t>Unity，镜头控制，跟着角色移动</t>
+    <t>对话框对话</t>
+  </si>
+  <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>2020.01.S5</t>
+  </si>
+  <si>
+    <t>Unity，加入指证功能，指证功能的显示，显示/关闭证物列表，点击查看详细信息</t>
+  </si>
+  <si>
+    <t>Wen Yangwei</t>
+  </si>
+  <si>
+    <t>Unity，加入指证功能，收集证物，加入物品到证物表（数据处理已完成）</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>2020.03(Pre-Alpha).S2</t>
+  </si>
+  <si>
+    <t>Unity，点击后可以获得证物</t>
+  </si>
+  <si>
+    <t>Unity，对话中出现出现出示证物的选项。在UI部分点击某个证物以后，证物系统提供一个接口用于接受该证物，并返回处理结果</t>
+  </si>
+  <si>
+    <t>Unity，查看历史记录</t>
+  </si>
+  <si>
+    <t>Unity，快进已读文本(快进按键)</t>
+  </si>
+  <si>
+    <t>2020.03(Pre-Alpha).S1</t>
+  </si>
+  <si>
+    <t>Unity，画面下半部分到达人物立绘腰部（视情况而定）</t>
+  </si>
+  <si>
+    <t>Unity，狱警立绘从画面中去掉</t>
+  </si>
+  <si>
+    <t>Unity，摄像机调整位置，按照较低的位置放置</t>
+  </si>
+  <si>
+    <t>Unity，画面色调，偏蓝</t>
+  </si>
+  <si>
+    <t>Unity，场景重新搭一下，底下不要留空隙</t>
+  </si>
+  <si>
+    <t>Unity，把船，狱警放在场景中</t>
+  </si>
+  <si>
+    <t>Unity，把主角变成一个2D块</t>
+  </si>
+  <si>
+    <t>Unity，Skip或者是High Speed模式</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Editor，添加DeleteNode的选项</t>
+  </si>
+  <si>
+    <t>Editor，改善上下移动的操作，当上下移动的时候，选中的元素应该跟随上下移动</t>
+  </si>
+  <si>
+    <t>Editor，定时备份当前正在编辑的剧情</t>
+  </si>
+  <si>
+    <t>Editor，增加操作成功的提示</t>
+  </si>
+  <si>
+    <t>Ediotr，角色立绘表，</t>
+  </si>
+  <si>
+    <t>Unity，加入闪光，画面动画</t>
+  </si>
+  <si>
+    <t>Unity，可以选择不同的打字机音效</t>
+  </si>
+  <si>
+    <t>Unity，选择N个选项后才能继续播放剧情</t>
+  </si>
+  <si>
+    <t>Editor，提供不同的打字机音效Table，和控制符插入</t>
+  </si>
+  <si>
+    <t>Editor，加入场景标签，写入json</t>
+  </si>
+  <si>
+    <t>Unity，画面效果，体积雾，Volume Fog</t>
   </si>
   <si>
     <t>P2_MUST</t>
   </si>
   <si>
-    <t>Unity，场景切换，从游戏开始界面，切换到游戏场景，游戏关闭</t>
+    <t>Unity，加入色调变化</t>
+  </si>
+  <si>
+    <t>Unity，小地图功能</t>
+  </si>
+  <si>
+    <t>Unity，当在场景中触发一个事件时，应该生成唯一ID，并且StoryReader能够分析，并且得到对应的文本，或者是返回失败</t>
+  </si>
+  <si>
+    <t>2020.01.S4</t>
+  </si>
+  <si>
+    <t>Unity，初期场景搭建</t>
+  </si>
+  <si>
+    <t>Unity，增加场景类型，一种为可活动摄像机，另一种是固定式的摄像机</t>
+  </si>
+  <si>
+    <t>Unity，定点触发事件</t>
+  </si>
+  <si>
+    <t>Unity，StoryReader读取证物读取的数据，并且调用UI显示证物画面</t>
+  </si>
+  <si>
+    <t>Unity,Edit/ToolBox，设计一个用于场景编辑的窗口。可以快速生成可交互物品，空气墙，剧情触发器等Gameobject</t>
+  </si>
+  <si>
+    <t>Unity，场景物品交互设置，角色设置可交互范围，调用UI，取消UI，触发事件</t>
+  </si>
+  <si>
+    <t>Editor，添加Effect和Bgm表</t>
+  </si>
+  <si>
+    <t>Unity，加入指证功能，证据系统搭建，出示证据，数据处理</t>
+  </si>
+  <si>
+    <t>Unity，保存，读取系统架构</t>
+  </si>
+  <si>
+    <t>Unity，剧情自动进行(auto按钮)</t>
+  </si>
+  <si>
+    <t>Unity，人物名艺术字</t>
+  </si>
+  <si>
+    <t>Unity，加入bgm，effect变化</t>
+  </si>
+  <si>
+    <t>Unity，Input输入系统，整合Unity new input system，操作方式包括鼠标，键盘，手柄，屏幕，可以为不同的设备配置一个通用的操作</t>
+  </si>
+  <si>
+    <t>2020.01.S3</t>
+  </si>
+  <si>
+    <t>Unity，文字控制符，分词器，parsing，针对读取到的文本进行分词处理，可以参考HeavenGateCompiler</t>
+  </si>
+  <si>
+    <t>Unity，消息管理系统</t>
+  </si>
+  <si>
+    <t>Unity，摄像机移动动画，DOTWEEN缓动动画</t>
+  </si>
+  <si>
+    <t>Editor，加入证物表</t>
+  </si>
+  <si>
+    <t>Unity，UIPanel自动化</t>
+  </si>
+  <si>
+    <t>2020.01.S2</t>
+  </si>
+  <si>
+    <t>Editor，文字控制符，对话中停顿，可以调整等待的时长</t>
+  </si>
+  <si>
+    <t>2020.01.S1</t>
+  </si>
+  <si>
+    <t>Editor，优化显示，对于不同的类型，制作一个可缩略的选项</t>
+  </si>
+  <si>
+    <t>P3_MUST</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Editor，增加对于jump和label的提示，禁止死循环</t>
+  </si>
+  <si>
+    <t>Editor，预览文字功能（预览字体颜色，大小）</t>
+  </si>
+  <si>
+    <t>Editor，设计唯一ID，Jumo 和Label加入下拉框选择</t>
+  </si>
+  <si>
+    <t>Ediotr, 加入章节表，场景表，角色表，停顿时间表</t>
+  </si>
+  <si>
+    <t>Editor，Color选择窗口，添加颜色选择器</t>
   </si>
   <si>
     <t>Unity，文字控制符，立绘的移动</t>
   </si>
   <si>
-    <t>P4_SHOULD</t>
+    <t>Unity，加入立绘表情</t>
   </si>
   <si>
-    <t>Unity，虚拟摇杆，角色在场景中可移动</t>
+    <t>Unity，场景切换，从游戏开始界面，切换到游戏场景，游戏关闭</t>
   </si>
   <si>
-    <t>Wen Yangwei</t>
+    <t>Editor，文字控制符，立绘的移动，选择移动的方式、和位移</t>
+  </si>
+  <si>
+    <t>Unity，UI框架，提供显示提示框，对话框，选择框</t>
+  </si>
+  <si>
+    <t>Editor，jump增加一个content字段</t>
+  </si>
+  <si>
+    <t>Editor，把文字控制符加入到Content里</t>
+  </si>
+  <si>
+    <t>Editor，文字控制符，Tips功能</t>
+  </si>
+  <si>
+    <t>Editor，Tips编辑功能</t>
+  </si>
+  <si>
+    <t>Unity，声音系统，固定音量播放，钉宫理惠语音包</t>
+  </si>
+  <si>
+    <t>Unity，镜头控制，跟着角色移动</t>
   </si>
   <si>
     <t>Unity，角色可以与场景中的道具相交互，触发一个事件</t>
   </si>
   <si>
-    <t>P3_MUST</t>
-  </si>
-  <si>
     <t>Unity，剧情分支，选项，实现label和jump这两个node的功能</t>
   </si>
   <si>
-    <t>Unity，UI框架，提供显示提示框，对话框，选择框和漂浮选择框</t>
-  </si>
-  <si>
-    <t>Zhang Jinze</t>
-  </si>
-  <si>
-    <t>Unity，更新资源管理系统，提供对于UI和场景的接口，整合Addressable</t>
+    <t>Unity，剧情数据结构，json读取，在UI上显示基础对话，只显示名字和内容</t>
   </si>
   <si>
     <t>Unity，文字控制符，颜色控制，播放对应颜色，字体调整，调整字体大小</t>
@@ -166,43 +382,22 @@
     <t>Unity，文字控制符，对话中停顿</t>
   </si>
   <si>
+    <t>Unity，对话框打字机效果</t>
+  </si>
+  <si>
     <t>Editor，剧情分支，选项编辑，实现label和jump</t>
   </si>
   <si>
     <t>Editor，文字控制符，字体调整，调整字体大小</t>
   </si>
   <si>
-    <t>Editor，文字控制符，对话中停顿，可以调整等待的时长</t>
-  </si>
-  <si>
-    <t>Unity，文字控制符，追问功能</t>
-  </si>
-  <si>
-    <t>Unity，文字控制符，Tips功能，当运行到这个字的时候提示加入到Tips中，Tips显示功能，作为设置的一个选项</t>
-  </si>
-  <si>
-    <t>Unity，输入系统，提供虚拟摇杆，手柄，PC输入</t>
-  </si>
-  <si>
-    <t>P5_SHOULD</t>
-  </si>
-  <si>
-    <t>Unity，剧情数据结构，json读取，在UI上显示基础对话，只显示名字和内容</t>
-  </si>
-  <si>
-    <t>Unity，对话框打字机效果</t>
-  </si>
-  <si>
     <t>Unity，图片资源管理</t>
   </si>
   <si>
-    <t>Resolve</t>
+    <t>Unity，虚拟摇杆，角色在场景中可移动</t>
   </si>
   <si>
-    <t>Editor，文字控制符，立绘的移动，选择移动的方式、和位移</t>
-  </si>
-  <si>
-    <t>Editor，文字控制符，Tips功能</t>
+    <t>Unity，更新资源管理系统，提供对于UI和场景的接口，整合Addressable</t>
   </si>
   <si>
     <t>Editor，表格编辑功能</t>
@@ -214,19 +409,46 @@
     <t>Editor，重构窗口架构，提供一个基类，方便未来窗口类开发</t>
   </si>
   <si>
-    <t>Editor，Tips编辑功能</t>
+    <t>Close(Do Not Do)</t>
   </si>
   <si>
-    <t>Editor，优化显示，对于不同的类型，制作一个可缩略的选项</t>
+    <t>2020.02(Alpha)</t>
   </si>
   <si>
-    <t>S4</t>
+    <t>对话框颜色随角色变化</t>
   </si>
   <si>
-    <t>Editor，增加对于jump和label的提示，禁止死循环</t>
+    <t>Unity，加入时间系统</t>
+  </si>
+  <si>
+    <t>Editor，加入时间系统</t>
+  </si>
+  <si>
+    <t>Unity，取出Jump和label，显示选项，负责具体跳转</t>
+  </si>
+  <si>
+    <t>Editor，重构TipTable，为Tip Content提供更多的内存空间</t>
+  </si>
+  <si>
+    <t>Unity，文字控制符，Tips功能，当运行到这个字的时候提示加入到Tips中，Tips显示功能，作为设置的一个选项</t>
+  </si>
+  <si>
+    <t>Unity，加入tip列表</t>
+  </si>
+  <si>
+    <t>Unity，对话UI，提供出示证物的接口，接受正确的证物作为参数</t>
   </si>
   <si>
     <t>Current time percentage 时间百分比(%)</t>
+  </si>
+  <si>
+    <t>2019.12 All Task estimated Time</t>
+  </si>
+  <si>
+    <t>2019.1 All Task Estimated Time</t>
+  </si>
+  <si>
+    <t>Already Done</t>
   </si>
   <si>
     <t>All Task Estimated Time总任务预计时间</t>
@@ -256,19 +478,34 @@
     <t>Current Spent Time当前消耗时间</t>
   </si>
   <si>
-    <t>Artist Task Cecklist</t>
+    <t>Artist Task Check List</t>
   </si>
   <si>
-    <t>游戏设置UI</t>
+    <t>概念设计，角色在场景中的概念图</t>
   </si>
   <si>
     <t>Artist Backlog</t>
   </si>
   <si>
-    <t>游戏证物栏UI</t>
+    <t>场景素材</t>
   </si>
   <si>
-    <t>角色移动动画，只需要主角</t>
+    <t>UI，按钮九宫图</t>
+  </si>
+  <si>
+    <t>UI，按钮</t>
+  </si>
+  <si>
+    <t>UI, 女主立绘</t>
+  </si>
+  <si>
+    <t>UI,男主立绘</t>
+  </si>
+  <si>
+    <t>场景，女主行走图</t>
+  </si>
+  <si>
+    <t>场景，可交互物品</t>
   </si>
   <si>
     <t>Designer Task Cecklist</t>
@@ -302,11 +539,6 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF9C0006"/>
-      <name val="Avenir"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Avenir"/>
     </font>
@@ -315,9 +547,14 @@
       <color theme="1"/>
       <name val="Avenir"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Avenir"/>
+    </font>
     <font/>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,14 +603,8 @@
         <bgColor rgb="FFFFF3CA"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4F9F7"/>
-        <bgColor rgb="FFF4F9F7"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border/>
     <border>
       <left style="thin">
@@ -396,12 +627,9 @@
       <right style="dotted">
         <color rgb="FFADADAD"/>
       </right>
-      <top style="thin">
-        <color rgb="FF929292"/>
+      <top style="dotted">
+        <color rgb="FFADADAD"/>
       </top>
-      <bottom style="dotted">
-        <color rgb="FFADADAD"/>
-      </bottom>
     </border>
     <border>
       <right style="dotted">
@@ -455,20 +683,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFE3E3E3"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FFADADAD"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FFADADAD"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FFADADAD"/>
-      </bottom>
-    </border>
-    <border>
       <left style="dotted">
         <color rgb="FFADADAD"/>
       </left>
@@ -507,17 +721,6 @@
       <bottom style="dotted">
         <color rgb="FFADADAD"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE3E3E3"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FFADADAD"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FFADADAD"/>
-      </top>
     </border>
     <border>
       <right style="dotted">
@@ -618,6 +821,20 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FFADADAD"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FFADADAD"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FFADADAD"/>
+      </bottom>
+    </border>
+    <border>
       <right style="dotted">
         <color rgb="FFADADAD"/>
       </right>
@@ -643,12 +860,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="98">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -662,209 +879,287 @@
     <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="14" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="4" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="4" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="5" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="5" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="6" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="6" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="6" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="7" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="7" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="6" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="7" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="7" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="4" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="5" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="5" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="5" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="5" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="5" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="5" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="19" fillId="8" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="20" fillId="5" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="19" fillId="8" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="8" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="8" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="8" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="19" fillId="8" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="8" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="19" fillId="8" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="8" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="19" fillId="8" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="8" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="19" fillId="8" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="22" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="23" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="9" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="9" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="9" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="9" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="9" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="9" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <font/>
       <fill>
@@ -903,6 +1198,26 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFE0F7FA"/>
           <bgColor rgb="FFE0F7FA"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6FA8DC"/>
+          <bgColor rgb="FF6FA8DC"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
         </patternFill>
       </fill>
       <border/>
@@ -973,7 +1288,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4381500" cy="2867025"/>
@@ -1001,7 +1316,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3514725" cy="2324100"/>
@@ -1235,8 +1550,8 @@
     <col customWidth="1" min="1" max="1" width="18.86"/>
     <col customWidth="1" min="2" max="2" width="13.71"/>
     <col customWidth="1" min="3" max="3" width="16.43"/>
-    <col customWidth="1" min="4" max="4" width="64.14"/>
-    <col customWidth="1" min="5" max="5" width="31.86"/>
+    <col customWidth="1" min="4" max="4" width="63.29"/>
+    <col customWidth="1" min="5" max="5" width="23.29"/>
     <col customWidth="1" min="6" max="6" width="24.0"/>
     <col customWidth="1" min="7" max="8" width="19.86"/>
     <col customWidth="1" min="9" max="9" width="21.43"/>
@@ -1334,7 +1649,9 @@
       <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="11">
+        <v>0.0</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1356,7 +1673,7 @@
       <c r="AA3" s="2"/>
     </row>
     <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1375,7 +1692,9 @@
       <c r="G4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="11">
+        <v>0.0</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1397,7 +1716,7 @@
       <c r="AA4" s="2"/>
     </row>
     <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1416,7 +1735,9 @@
       <c r="G5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="11">
+        <v>0.0</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1438,7 +1759,7 @@
       <c r="AA5" s="2"/>
     </row>
     <row r="6" ht="36.0" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1457,7 +1778,9 @@
       <c r="G6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="11">
+        <v>0.0</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1479,7 +1802,7 @@
       <c r="AA6" s="2"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1498,7 +1821,9 @@
       <c r="G7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="11">
+        <v>0.0</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1520,7 +1845,7 @@
       <c r="AA7" s="2"/>
     </row>
     <row r="8" ht="30.75" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1539,7 +1864,9 @@
       <c r="G8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="11">
+        <v>0.0</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1561,7 +1888,7 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" ht="33.75" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1580,7 +1907,9 @@
       <c r="G9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="11">
+        <v>0.0</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1602,7 +1931,7 @@
       <c r="AA9" s="2"/>
     </row>
     <row r="10" ht="33.75" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1621,7 +1950,9 @@
       <c r="G10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="11">
+        <v>0.0</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1643,7 +1974,7 @@
       <c r="AA10" s="2"/>
     </row>
     <row r="11" ht="33.75" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1662,7 +1993,9 @@
       <c r="G11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="11">
+        <v>0.0</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1684,7 +2017,7 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" ht="22.5" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1703,7 +2036,9 @@
       <c r="G12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="11">
+        <v>0.0</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1725,7 +2060,7 @@
       <c r="AA12" s="2"/>
     </row>
     <row r="13" ht="22.5" customHeight="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1734,7 +2069,7 @@
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -1744,7 +2079,9 @@
       <c r="G13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="11">
+        <v>0.0</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1766,7 +2103,7 @@
       <c r="AA13" s="2"/>
     </row>
     <row r="14" ht="22.5" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1785,7 +2122,9 @@
       <c r="G14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="11">
+        <v>0.0</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1807,7 +2146,7 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1826,7 +2165,9 @@
       <c r="G15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="11">
+        <v>0.0</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1848,16 +2189,16 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="18" t="s">
@@ -1867,7 +2208,9 @@
       <c r="G16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="H16" s="11">
+        <v>0.0</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1901,7 +2244,7 @@
       <c r="D17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="25" t="s">
@@ -1911,7 +2254,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="26">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="2"/>
@@ -1941,24 +2284,24 @@
         <v>4</v>
       </c>
       <c r="C18" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D18" s="27" t="s">
+        <v>2020.01</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="28" t="s">
+      <c r="E18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="F18" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="I18" s="29"/>
+      <c r="H18" s="28">
+        <v>10.0</v>
+      </c>
+      <c r="I18" s="26"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1978,32 +2321,24 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" ht="22.5" customHeight="1">
-      <c r="A19" s="21" t="s">
+    <row r="19" ht="33.0" customHeight="1">
+      <c r="A19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="29">
-        <v>6.0</v>
-      </c>
-      <c r="I19" s="29"/>
+        <v>2020.4</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -2023,32 +2358,32 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" ht="22.5" customHeight="1">
-      <c r="A20" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="22" t="s">
+    <row r="20" ht="35.25" customHeight="1">
+      <c r="A20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="29">
-        <v>4.0</v>
-      </c>
-      <c r="I20" s="29"/>
+      <c r="C20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="I20" s="37"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -2068,34 +2403,32 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" ht="22.5" customHeight="1">
-      <c r="A21" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="22" t="s">
+    <row r="21" ht="35.25" customHeight="1">
+      <c r="A21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="23" t="s">
         <v>41</v>
       </c>
+      <c r="D21" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="E21" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="33">
-        <v>4.0</v>
-      </c>
-      <c r="I21" s="33">
+        <v>19</v>
+      </c>
+      <c r="H21" s="36">
         <v>6.0</v>
       </c>
+      <c r="I21" s="33"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -2115,32 +2448,32 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" ht="34.5" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="22" t="s">
+    <row r="22" ht="35.25" customHeight="1">
+      <c r="A22" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D22" s="24" t="s">
+      <c r="C22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="24" t="s">
+      <c r="F22" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="I22" s="26"/>
+      <c r="H22" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="I22" s="33"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2160,32 +2493,32 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" ht="21.75" customHeight="1">
-      <c r="A23" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="22" t="s">
+    <row r="23" ht="35.25" customHeight="1">
+      <c r="A23" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="24" t="s">
+      <c r="C23" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="I23" s="26"/>
+      <c r="H23" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="I23" s="33"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -2205,32 +2538,32 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" ht="24.0" customHeight="1">
-      <c r="A24" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="22" t="s">
+    <row r="24" ht="35.25" customHeight="1">
+      <c r="A24" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="24" t="s">
+      <c r="D24" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="I24" s="26"/>
+      <c r="H24" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="I24" s="33"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -2250,32 +2583,32 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" ht="36.0" customHeight="1">
-      <c r="A25" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="22" t="s">
+    <row r="25" ht="35.25" customHeight="1">
+      <c r="A25" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="24" t="s">
+      <c r="C25" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="26">
-        <v>10.0</v>
-      </c>
-      <c r="I25" s="26"/>
+      <c r="H25" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="I25" s="33"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -2295,32 +2628,32 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" ht="22.5" customHeight="1">
-      <c r="A26" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="22" t="s">
+    <row r="26" ht="39.75" customHeight="1">
+      <c r="A26" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="24" t="s">
+      <c r="C26" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="36">
         <v>4.0</v>
       </c>
-      <c r="I26" s="26"/>
+      <c r="I26" s="33"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -2340,32 +2673,32 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" ht="22.5" customHeight="1">
-      <c r="A27" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="22" t="s">
+    <row r="27" ht="39.75" customHeight="1">
+      <c r="A27" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="24" t="s">
+      <c r="C27" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="I27" s="26"/>
+      <c r="H27" s="40">
+        <v>2.0</v>
+      </c>
+      <c r="I27" s="33"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -2385,22 +2718,32 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" ht="22.5" customHeight="1">
-      <c r="A28" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="22" t="s">
+    <row r="28" ht="39.75" customHeight="1">
+      <c r="A28" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
+      <c r="C28" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="40">
+        <v>2.0</v>
+      </c>
+      <c r="I28" s="33"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -2420,34 +2763,32 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" ht="22.5" customHeight="1">
-      <c r="A29" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="22" t="s">
+    <row r="29" ht="39.75" customHeight="1">
+      <c r="A29" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="31" t="s">
+      <c r="D29" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="33">
-        <v>4.0</v>
-      </c>
-      <c r="I29" s="33">
-        <v>4.0</v>
-      </c>
+      <c r="H29" s="40">
+        <v>2.0</v>
+      </c>
+      <c r="I29" s="33"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -2467,34 +2808,32 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" ht="36.75" customHeight="1">
-      <c r="A30" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="22" t="s">
+    <row r="30" ht="39.75" customHeight="1">
+      <c r="A30" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>52</v>
+      <c r="C30" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="40">
         <v>2.0</v>
       </c>
-      <c r="I30" s="39">
-        <v>0.5</v>
-      </c>
+      <c r="I30" s="33"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -2514,32 +2853,32 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" ht="22.5" customHeight="1">
-      <c r="A31" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="22" t="s">
+    <row r="31" ht="39.75" customHeight="1">
+      <c r="A31" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="24" t="s">
+      <c r="C31" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="40">
         <v>2.0</v>
       </c>
-      <c r="I31" s="26"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -2559,32 +2898,32 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" ht="22.5" customHeight="1">
-      <c r="A32" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="22" t="s">
+    <row r="32" ht="39.75" customHeight="1">
+      <c r="A32" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="23">
-        <v>2019.12</v>
+      <c r="C32" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="29">
-        <v>4.0</v>
-      </c>
-      <c r="I32" s="29"/>
+      <c r="H32" s="40">
+        <v>2.0</v>
+      </c>
+      <c r="I32" s="33"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -2604,32 +2943,32 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" ht="22.5" customHeight="1">
-      <c r="A33" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="22" t="s">
+    <row r="33" ht="39.75" customHeight="1">
+      <c r="A33" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="27" t="s">
+      <c r="C33" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="29">
-        <v>8.0</v>
-      </c>
-      <c r="I33" s="29"/>
+      <c r="H33" s="40">
+        <v>2.0</v>
+      </c>
+      <c r="I33" s="33"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -2649,30 +2988,16 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" ht="22.5" customHeight="1">
-      <c r="A34" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="29">
-        <v>10.0</v>
-      </c>
-      <c r="I34" s="29"/>
+    <row r="34" ht="39.75" customHeight="1">
+      <c r="A34" s="34"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -2692,32 +3017,22 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" ht="22.5" customHeight="1">
-      <c r="A35" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="I35" s="26"/>
+    <row r="35" ht="39.75" customHeight="1">
+      <c r="A35" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -2737,32 +3052,22 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" ht="22.5" customHeight="1">
-      <c r="A36" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="I36" s="26"/>
+    <row r="36" ht="34.5" customHeight="1">
+      <c r="A36" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -2782,30 +3087,22 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" ht="22.5" customHeight="1">
-      <c r="A37" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D37" s="24" t="s">
+    <row r="37" ht="27.0" customHeight="1">
+      <c r="A37" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" s="24"/>
-      <c r="H37" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="I37" s="26"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -2825,22 +3122,22 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" ht="22.5" customHeight="1">
-      <c r="A38" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
+    <row r="38" ht="20.25" customHeight="1">
+      <c r="A38" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -2860,22 +3157,22 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" ht="22.5" customHeight="1">
-      <c r="A39" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
+    <row r="39" ht="23.25" customHeight="1">
+      <c r="A39" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -2895,32 +3192,32 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" ht="22.5" customHeight="1">
-      <c r="A40" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="22" t="s">
+    <row r="40" ht="19.5" customHeight="1">
+      <c r="A40" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" s="24" t="s">
+      <c r="C40" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="I40" s="26"/>
+      <c r="H40" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="I40" s="33"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -2940,32 +3237,32 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" ht="22.5" customHeight="1">
-      <c r="A41" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="22" t="s">
+    <row r="41" ht="33.75" customHeight="1">
+      <c r="A41" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" s="24" t="s">
+      <c r="C41" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H41" s="36">
         <v>2.0</v>
       </c>
-      <c r="I41" s="26"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -2985,34 +3282,32 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" ht="22.5" customHeight="1">
-      <c r="A42" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="22" t="s">
+    <row r="42" ht="33.75" customHeight="1">
+      <c r="A42" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="23">
-        <v>2019.12</v>
+      <c r="C42" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="33">
-        <v>10.0</v>
-      </c>
-      <c r="I42" s="39">
-        <v>10.0</v>
-      </c>
+      <c r="H42" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="I42" s="33"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -3032,34 +3327,32 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" ht="22.5" customHeight="1">
-      <c r="A43" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="22" t="s">
+    <row r="43" ht="35.25" customHeight="1">
+      <c r="A43" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="23">
-        <v>2019.12</v>
+      <c r="C43" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G43" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="33">
-        <v>4.0</v>
-      </c>
-      <c r="I43" s="39">
+      <c r="H43" s="36">
         <v>6.0</v>
       </c>
+      <c r="I43" s="33"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -3079,34 +3372,32 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" ht="22.5" customHeight="1">
-      <c r="A44" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="22" t="s">
+    <row r="44" ht="27.0" customHeight="1">
+      <c r="A44" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="23">
-        <v>2019.12</v>
+      <c r="C44" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="33">
-        <v>6.0</v>
-      </c>
-      <c r="I44" s="39">
-        <v>16.0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="I44" s="37"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -3126,32 +3417,30 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" ht="22.5" customHeight="1">
-      <c r="A45" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="22" t="s">
+    <row r="45" ht="27.0" customHeight="1">
+      <c r="A45" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="28" t="s">
+      <c r="C45" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="29">
-        <v>4.0</v>
-      </c>
-      <c r="I45" s="29"/>
+      <c r="F45" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="42"/>
+      <c r="I45" s="43"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -3171,32 +3460,32 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" ht="22.5" customHeight="1">
-      <c r="A46" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="22" t="s">
+    <row r="46" ht="32.25" customHeight="1">
+      <c r="A46" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="27" t="s">
+      <c r="C46" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H46" s="29">
-        <v>6.0</v>
-      </c>
-      <c r="I46" s="29"/>
+      <c r="F46" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="I46" s="37"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -3217,31 +3506,31 @@
       <c r="AA46" s="2"/>
     </row>
     <row r="47" ht="22.5" customHeight="1">
-      <c r="A47" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="22" t="s">
+      <c r="A47" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="23">
-        <v>2019.12</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="27" t="s">
+      <c r="C47" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="29">
-        <v>6.0</v>
-      </c>
-      <c r="I47" s="29"/>
+      <c r="F47" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="I47" s="26"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -3262,25 +3551,31 @@
       <c r="AA47" s="2"/>
     </row>
     <row r="48" ht="22.5" customHeight="1">
-      <c r="A48" s="43"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="45">
-        <f>F48/G48*100</f>
-        <v>62.5</v>
-      </c>
-      <c r="F48" s="46">
-        <f>50*3</f>
-        <v>150</v>
-      </c>
-      <c r="G48" s="47">
-        <v>240.0</v>
-      </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="A48" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="I48" s="26"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -3300,16 +3595,32 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" ht="34.5" customHeight="1">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+    <row r="49" ht="22.5" customHeight="1">
+      <c r="A49" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="I49" s="46"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -3329,26 +3640,32 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" ht="44.25" customHeight="1">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="52">
-        <f>SUM(H17:H47)</f>
-        <v>130</v>
-      </c>
-      <c r="F50" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="54">
-        <f>E51/E50</f>
-        <v>1.846153846</v>
-      </c>
-      <c r="H50" s="51"/>
-      <c r="I50" s="2"/>
+    <row r="50" ht="31.5" customHeight="1">
+      <c r="A50" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="I50" s="26"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -3368,26 +3685,32 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" ht="44.25" customHeight="1">
-      <c r="A51" s="48"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="52">
-        <f>3*4*20</f>
-        <v>240</v>
-      </c>
-      <c r="F51" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="54">
-        <f>E54/E53</f>
-        <v>1.829268293</v>
-      </c>
-      <c r="H51" s="51"/>
-      <c r="I51" s="2"/>
+    <row r="51" ht="22.5" customHeight="1">
+      <c r="A51" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="23">
+        <v>4.0</v>
+      </c>
+      <c r="I51" s="26"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -3407,26 +3730,32 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" ht="43.5" customHeight="1">
-      <c r="A52" s="48"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="52">
-        <f>SUM(I17:I47)</f>
-        <v>42.5</v>
-      </c>
-      <c r="F52" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="G52" s="54">
-        <f>G51*(E50-E52)</f>
-        <v>160.0609756</v>
-      </c>
-      <c r="H52" s="51"/>
-      <c r="I52" s="2"/>
+    <row r="52" ht="22.5" customHeight="1">
+      <c r="A52" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="I52" s="26"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -3446,26 +3775,32 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" ht="36.75" customHeight="1">
-      <c r="A53" s="48"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" s="52">
-        <f>H47+H44+H43+H41+H40+H39+H38+H37+H34+H33+H32+H27+H25+H24+H23+H22+H18+H17+H19</f>
-        <v>82</v>
-      </c>
-      <c r="F53" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="G53" s="54">
-        <f>G52-E51</f>
-        <v>-79.93902439</v>
-      </c>
-      <c r="H53" s="51"/>
-      <c r="I53" s="2"/>
+    <row r="53" ht="22.5" customHeight="1">
+      <c r="A53" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="I53" s="26"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -3486,20 +3821,31 @@
       <c r="AA53" s="2"/>
     </row>
     <row r="54" ht="22.5" customHeight="1">
-      <c r="A54" s="48"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="52">
-        <f>F48</f>
-        <v>150</v>
-      </c>
-      <c r="F54" s="57"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="2"/>
+      <c r="A54" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="28">
+        <v>6.0</v>
+      </c>
+      <c r="I54" s="26"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -3519,18 +3865,32 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" ht="21.75" customHeight="1">
-      <c r="A55" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="2"/>
+    <row r="55" ht="22.5" customHeight="1">
+      <c r="A55" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="I55" s="26"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -3550,18 +3910,32 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" ht="21.75" customHeight="1">
-      <c r="A56" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="B56" s="61"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="2"/>
+    <row r="56" ht="22.5" customHeight="1">
+      <c r="A56" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="28">
+        <v>6.0</v>
+      </c>
+      <c r="I56" s="26"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -3581,26 +3955,32 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" ht="21.75" customHeight="1">
-      <c r="A57" s="66" t="b">
-        <v>0</v>
-      </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" s="70"/>
-      <c r="G57" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="I57" s="2"/>
+    <row r="57" ht="31.5" customHeight="1">
+      <c r="A57" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="28">
+        <v>6.0</v>
+      </c>
+      <c r="I57" s="26"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -3620,26 +4000,32 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" ht="21.75" customHeight="1">
-      <c r="A58" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="B58" s="61"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="F58" s="64"/>
-      <c r="G58" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="I58" s="2"/>
+    <row r="58" ht="22.5" customHeight="1">
+      <c r="A58" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="I58" s="26"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -3659,26 +4045,32 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" ht="21.75" customHeight="1">
-      <c r="A59" s="66" t="b">
-        <v>0</v>
-      </c>
-      <c r="B59" s="67"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="F59" s="70"/>
-      <c r="G59" s="71" t="s">
+    <row r="59" ht="29.25" customHeight="1">
+      <c r="A59" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H59" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="2"/>
+      <c r="H59" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="I59" s="26"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -3698,16 +4090,32 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" ht="21.75" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+    <row r="60" ht="22.5" customHeight="1">
+      <c r="A60" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="I60" s="26"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -3727,16 +4135,32 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" ht="21.75" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+    <row r="61" ht="34.5" customHeight="1">
+      <c r="A61" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="I61" s="26"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -3756,16 +4180,32 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" ht="21.75" customHeight="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+    <row r="62" ht="22.5" customHeight="1">
+      <c r="A62" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="28">
+        <v>10.0</v>
+      </c>
+      <c r="I62" s="26"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -3785,11 +4225,32 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" ht="21.75" customHeight="1">
-      <c r="A63" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I63" s="2"/>
+    <row r="63" ht="36.75" customHeight="1">
+      <c r="A63" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="I63" s="50"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -3809,26 +4270,32 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" ht="21.75" customHeight="1">
-      <c r="A64" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="B64" s="61"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="I64" s="2"/>
+    <row r="64" ht="22.5" customHeight="1">
+      <c r="A64" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="I64" s="26"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -3848,16 +4315,32 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" ht="21.75" customHeight="1">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+    <row r="65" ht="30.0" customHeight="1">
+      <c r="A65" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="I65" s="46"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -3877,16 +4360,32 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" ht="21.75" customHeight="1">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+    <row r="66" ht="22.5" customHeight="1">
+      <c r="A66" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="28">
+        <v>6.0</v>
+      </c>
+      <c r="I66" s="51"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -3906,16 +4405,32 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" ht="21.75" customHeight="1">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
+    <row r="67" ht="31.5" customHeight="1">
+      <c r="A67" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F67" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="I67" s="46"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -3935,16 +4450,32 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" ht="21.75" customHeight="1">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+    <row r="68" ht="32.25" customHeight="1">
+      <c r="A68" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="H68" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="I68" s="26"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -3964,16 +4495,32 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" ht="21.75" customHeight="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+    <row r="69" ht="22.5" customHeight="1">
+      <c r="A69" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="I69" s="26"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -3993,16 +4540,32 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" ht="21.75" customHeight="1">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+    <row r="70" ht="22.5" customHeight="1">
+      <c r="A70" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G70" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="54">
+        <v>10.0</v>
+      </c>
+      <c r="I70" s="46"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -4022,16 +4585,32 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" ht="21.75" customHeight="1">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+    <row r="71" ht="36.0" customHeight="1">
+      <c r="A71" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G71" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="28">
+        <v>6.0</v>
+      </c>
+      <c r="I71" s="26"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -4051,16 +4630,32 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" ht="21.75" customHeight="1">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+    <row r="72" ht="36.0" customHeight="1">
+      <c r="A72" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="I72" s="26"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -4080,16 +4675,32 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" ht="21.75" customHeight="1">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
+    <row r="73" ht="36.0" customHeight="1">
+      <c r="A73" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G73" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="I73" s="26"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -4109,16 +4720,32 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" ht="21.75" customHeight="1">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+    <row r="74" ht="36.0" customHeight="1">
+      <c r="A74" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="I74" s="26"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -4138,16 +4765,32 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" ht="21.75" customHeight="1">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
+    <row r="75" ht="36.0" customHeight="1">
+      <c r="A75" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="28">
+        <v>6.0</v>
+      </c>
+      <c r="I75" s="26"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -4167,16 +4810,32 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" ht="21.75" customHeight="1">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
+    <row r="76" ht="36.0" customHeight="1">
+      <c r="A76" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D76" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="G76" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="33">
+        <v>6.0</v>
+      </c>
+      <c r="I76" s="33"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -4196,16 +4855,32 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" ht="21.75" customHeight="1">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+    <row r="77" ht="22.5" customHeight="1">
+      <c r="A77" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="40">
+        <v>2020.01</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E77" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="I77" s="33"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
@@ -4225,16 +4900,32 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" ht="21.75" customHeight="1">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+    <row r="78" ht="22.5" customHeight="1">
+      <c r="A78" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="G78" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="I78" s="37"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -4254,16 +4945,32 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" ht="21.75" customHeight="1">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+    <row r="79" ht="22.5" customHeight="1">
+      <c r="A79" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="I79" s="33"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -4283,16 +4990,32 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" ht="21.75" customHeight="1">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+    <row r="80" ht="22.5" customHeight="1">
+      <c r="A80" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="I80" s="26"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
@@ -4312,16 +5035,32 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" ht="21.75" customHeight="1">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+    <row r="81" ht="22.5" customHeight="1">
+      <c r="A81" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D81" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G81" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="46">
+        <v>2.0</v>
+      </c>
+      <c r="I81" s="46"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -4341,16 +5080,32 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" ht="21.75" customHeight="1">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
+    <row r="82" ht="22.5" customHeight="1">
+      <c r="A82" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G82" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="I82" s="26"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
@@ -4370,16 +5125,32 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" ht="21.75" customHeight="1">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
+    <row r="83" ht="22.5" customHeight="1">
+      <c r="A83" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E83" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="I83" s="46"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -4399,16 +5170,32 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" ht="21.75" customHeight="1">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
+    <row r="84" ht="22.5" customHeight="1">
+      <c r="A84" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="23">
+        <v>2019.12</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F84" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="I84" s="26"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -4428,16 +5215,32 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" ht="21.75" customHeight="1">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+    <row r="85" ht="36.75" customHeight="1">
+      <c r="A85" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D85" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="G85" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="37">
+        <v>6.0</v>
+      </c>
+      <c r="I85" s="37"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -4457,16 +5260,32 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" ht="21.75" customHeight="1">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+    <row r="86" ht="29.25" customHeight="1">
+      <c r="A86" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D86" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="E86" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F86" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="G86" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="37">
+        <v>6.0</v>
+      </c>
+      <c r="I86" s="37"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -4487,15 +5306,31 @@
       <c r="AA86" s="2"/>
     </row>
     <row r="87" ht="21.75" customHeight="1">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
+      <c r="A87" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D87" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E87" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G87" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="37">
+        <v>6.0</v>
+      </c>
+      <c r="I87" s="37"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
@@ -4516,15 +5351,31 @@
       <c r="AA87" s="2"/>
     </row>
     <row r="88" ht="21.75" customHeight="1">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
+      <c r="A88" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E88" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="37">
+        <v>4.0</v>
+      </c>
+      <c r="I88" s="37"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -4545,15 +5396,31 @@
       <c r="AA88" s="2"/>
     </row>
     <row r="89" ht="21.75" customHeight="1">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
+      <c r="A89" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D89" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="37">
+        <v>4.0</v>
+      </c>
+      <c r="I89" s="37"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -4574,15 +5441,31 @@
       <c r="AA89" s="2"/>
     </row>
     <row r="90" ht="21.75" customHeight="1">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
+      <c r="A90" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D90" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E90" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G90" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="I90" s="37"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
@@ -4603,15 +5486,33 @@
       <c r="AA90" s="2"/>
     </row>
     <row r="91" ht="21.75" customHeight="1">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
+      <c r="A91" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D91" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="42">
+        <v>4.0</v>
+      </c>
+      <c r="I91" s="42">
+        <v>4.0</v>
+      </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
@@ -4631,16 +5532,34 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" ht="21.75" customHeight="1">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
+    <row r="92" ht="23.25" customHeight="1">
+      <c r="A92" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D92" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E92" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G92" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="I92" s="43">
+        <v>0.5</v>
+      </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
@@ -4660,16 +5579,30 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" ht="21.75" customHeight="1">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
+    <row r="93" ht="22.5" customHeight="1">
+      <c r="A93" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D93" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G93" s="55"/>
+      <c r="H93" s="37">
+        <v>4.0</v>
+      </c>
+      <c r="I93" s="37"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
@@ -4689,16 +5622,34 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" ht="21.75" customHeight="1">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
+    <row r="94" ht="22.5" customHeight="1">
+      <c r="A94" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D94" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E94" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="42">
+        <v>4.0</v>
+      </c>
+      <c r="I94" s="42">
+        <v>6.0</v>
+      </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
@@ -4718,16 +5669,32 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" ht="21.75" customHeight="1">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
+    <row r="95" ht="22.5" customHeight="1">
+      <c r="A95" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D95" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E95" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="37">
+        <v>10.0</v>
+      </c>
+      <c r="I95" s="37"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
@@ -4747,16 +5714,34 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" ht="21.75" customHeight="1">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
+    <row r="96" ht="22.5" customHeight="1">
+      <c r="A96" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D96" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E96" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="42">
+        <v>10.0</v>
+      </c>
+      <c r="I96" s="43">
+        <v>10.0</v>
+      </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
@@ -4776,16 +5761,34 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" ht="21.75" customHeight="1">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
+    <row r="97" ht="23.25" customHeight="1">
+      <c r="A97" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D97" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="E97" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="42">
+        <v>4.0</v>
+      </c>
+      <c r="I97" s="43">
+        <v>6.0</v>
+      </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
@@ -4805,16 +5808,34 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" ht="21.75" customHeight="1">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
+    <row r="98" ht="22.5" customHeight="1">
+      <c r="A98" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="40">
+        <v>2019.12</v>
+      </c>
+      <c r="D98" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E98" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G98" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" s="42">
+        <v>6.0</v>
+      </c>
+      <c r="I98" s="43">
+        <v>16.0</v>
+      </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
@@ -4834,16 +5855,26 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" ht="21.75" customHeight="1">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
+    <row r="99" ht="22.5" customHeight="1">
+      <c r="A99" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D99" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="31"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
@@ -4863,16 +5894,32 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" ht="21.75" customHeight="1">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
+    <row r="100" ht="22.5" customHeight="1">
+      <c r="A100" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G100" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="I100" s="33"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
@@ -4892,16 +5939,32 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" ht="21.75" customHeight="1">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
+    <row r="101" ht="22.5" customHeight="1">
+      <c r="A101" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G101" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="I101" s="33"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
@@ -4921,16 +5984,32 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" ht="21.75" customHeight="1">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
+    <row r="102" ht="32.25" customHeight="1">
+      <c r="A102" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E102" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G102" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="I102" s="33"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
@@ -4950,16 +6029,32 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" ht="21.75" customHeight="1">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
+    <row r="103" ht="22.5" customHeight="1">
+      <c r="A103" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F103" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="I103" s="33"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
@@ -4979,16 +6074,32 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" ht="21.75" customHeight="1">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
+    <row r="104" ht="22.5" customHeight="1">
+      <c r="A104" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D104" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G104" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="33">
+        <v>8.0</v>
+      </c>
+      <c r="I104" s="33"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
@@ -5008,16 +6119,32 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" ht="21.75" customHeight="1">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
+    <row r="105" ht="22.5" customHeight="1">
+      <c r="A105" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G105" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="I105" s="33"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
@@ -5037,16 +6164,32 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" ht="21.75" customHeight="1">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
+    <row r="106" ht="22.5" customHeight="1">
+      <c r="A106" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F106" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="I106" s="26"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
@@ -5066,16 +6209,16 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" ht="21.75" customHeight="1">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
+    <row r="107" ht="22.5" customHeight="1">
+      <c r="A107" s="64"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="68"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
@@ -5095,14 +6238,25 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" ht="21.75" customHeight="1">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
+    <row r="108" ht="22.5" customHeight="1">
+      <c r="A108" s="69"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="E108" s="71">
+        <f>F108/G108*100</f>
+        <v>71.05263158</v>
+      </c>
+      <c r="F108" s="72">
+        <f>54*3</f>
+        <v>162</v>
+      </c>
+      <c r="G108" s="73">
+        <f>76*3</f>
+        <v>228</v>
+      </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -5124,12 +6278,17 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" ht="21.75" customHeight="1">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
+    <row r="109" ht="34.5" customHeight="1">
+      <c r="A109" s="74"/>
+      <c r="B109" s="75"/>
+      <c r="C109" s="75"/>
+      <c r="D109" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="E109" s="77">
+        <f>SUMIFS(H:H,A:A,"Resolve",C:C,"2019.12")</f>
+        <v>95</v>
+      </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
@@ -5153,15 +6312,28 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" ht="21.75" customHeight="1">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
+    <row r="110" ht="44.25" customHeight="1">
+      <c r="A110" s="74"/>
+      <c r="B110" s="75"/>
+      <c r="C110" s="75"/>
+      <c r="D110" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="E110" s="77">
+        <f t="array" ref="E110">SUMIFS(H:H,A:A, {"Open","Wsiting For"},C:C,"2020.01")+SUMIFS(H:H,A:A, "Resolve",C:C,"2020.01.S1")+SUMIFS(H:H,A:A, "In Progress",C:C,"2020.01.S2")</f>
+        <v>22</v>
+      </c>
+      <c r="F110" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="G110" s="80">
+        <f t="array" ref="G110">SUM(SUMIFS(H:H,A:A, "Resolve",C:C,{"=2020.01.S1","=2020.01.S2","=2020.01.S3","=2020.01.S4"}))</f>
+        <v>22</v>
+      </c>
+      <c r="H110" s="81">
+        <f>G110/E110*100</f>
+        <v>100</v>
+      </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
@@ -5182,15 +6354,25 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" ht="21.75" customHeight="1">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
+    <row r="111" ht="44.25" customHeight="1">
+      <c r="A111" s="74"/>
+      <c r="B111" s="75"/>
+      <c r="C111" s="75"/>
+      <c r="D111" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="E111" s="83">
+        <f>SUM(H19:H105)</f>
+        <v>324</v>
+      </c>
+      <c r="F111" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="G111" s="85">
+        <f>E112/E111</f>
+        <v>0.7037037037</v>
+      </c>
+      <c r="H111" s="82"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
@@ -5211,15 +6393,25 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" ht="21.75" customHeight="1">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
+    <row r="112" ht="44.25" customHeight="1">
+      <c r="A112" s="74"/>
+      <c r="B112" s="75"/>
+      <c r="C112" s="75"/>
+      <c r="D112" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="E112" s="83">
+        <f>G108</f>
+        <v>228</v>
+      </c>
+      <c r="F112" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="G112" s="85">
+        <f>E115/E114</f>
+        <v>1.62</v>
+      </c>
+      <c r="H112" s="82"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
@@ -5240,15 +6432,25 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" ht="21.75" customHeight="1">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
+    <row r="113" ht="43.5" customHeight="1">
+      <c r="A113" s="74"/>
+      <c r="B113" s="75"/>
+      <c r="C113" s="75"/>
+      <c r="D113" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="E113" s="83">
+        <f>SUM(I19:I105)</f>
+        <v>42.5</v>
+      </c>
+      <c r="F113" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="G113" s="85">
+        <f>G112*(E111-E114)</f>
+        <v>362.88</v>
+      </c>
+      <c r="H113" s="82"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
@@ -5269,15 +6471,25 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" ht="21.75" customHeight="1">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
+    <row r="114" ht="36.75" customHeight="1">
+      <c r="A114" s="74"/>
+      <c r="B114" s="75"/>
+      <c r="C114" s="75"/>
+      <c r="D114" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E114" s="83">
+        <f>SUM(H90:H105)+SUM(H19:H25)</f>
+        <v>100</v>
+      </c>
+      <c r="F114" s="87" t="s">
+        <v>153</v>
+      </c>
+      <c r="G114" s="85">
+        <f>E112-G113-E115</f>
+        <v>-296.88</v>
+      </c>
+      <c r="H114" s="82"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
@@ -5298,15 +6510,20 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" ht="21.75" customHeight="1">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
+    <row r="115" ht="22.5" customHeight="1">
+      <c r="A115" s="74"/>
+      <c r="B115" s="75"/>
+      <c r="C115" s="75"/>
+      <c r="D115" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="E115" s="83">
+        <f>F108</f>
+        <v>162</v>
+      </c>
+      <c r="F115" s="88"/>
+      <c r="G115" s="77"/>
+      <c r="H115" s="77"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
@@ -5328,14 +6545,16 @@
       <c r="AA115" s="2"/>
     </row>
     <row r="116" ht="21.75" customHeight="1">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
+      <c r="A116" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" s="90"/>
+      <c r="C116" s="90"/>
+      <c r="D116" s="90"/>
+      <c r="E116" s="90"/>
+      <c r="F116" s="90"/>
+      <c r="G116" s="90"/>
+      <c r="H116" s="90"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
@@ -5357,14 +6576,16 @@
       <c r="AA116" s="2"/>
     </row>
     <row r="117" ht="21.75" customHeight="1">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
+      <c r="A117" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="B117" s="92"/>
+      <c r="C117" s="93"/>
+      <c r="D117" s="94"/>
+      <c r="E117" s="94"/>
+      <c r="F117" s="95"/>
+      <c r="G117" s="95"/>
+      <c r="H117" s="96"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
@@ -5386,15 +6607,29 @@
       <c r="AA117" s="2"/>
     </row>
     <row r="118" ht="21.75" customHeight="1">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
+      <c r="A118" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B118" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="40">
+        <v>2020.01</v>
+      </c>
+      <c r="D118" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E118" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F118" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G118" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" s="42"/>
+      <c r="I118" s="43"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
@@ -5415,15 +6650,29 @@
       <c r="AA118" s="2"/>
     </row>
     <row r="119" ht="21.75" customHeight="1">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
+      <c r="A119" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="40">
+        <v>2020.01</v>
+      </c>
+      <c r="D119" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E119" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F119" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G119" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" s="42"/>
+      <c r="I119" s="43"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
@@ -5444,15 +6693,29 @@
       <c r="AA119" s="2"/>
     </row>
     <row r="120" ht="21.75" customHeight="1">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
+      <c r="A120" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B120" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="40">
+        <v>2020.01</v>
+      </c>
+      <c r="D120" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E120" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F120" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G120" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="42"/>
+      <c r="I120" s="43"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
@@ -5473,15 +6736,29 @@
       <c r="AA120" s="2"/>
     </row>
     <row r="121" ht="21.75" customHeight="1">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
+      <c r="A121" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B121" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="40">
+        <v>2020.01</v>
+      </c>
+      <c r="D121" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E121" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F121" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G121" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" s="42"/>
+      <c r="I121" s="43"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -5502,15 +6779,29 @@
       <c r="AA121" s="2"/>
     </row>
     <row r="122" ht="21.75" customHeight="1">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
+      <c r="A122" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="40">
+        <v>2020.01</v>
+      </c>
+      <c r="D122" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E122" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F122" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G122" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" s="42"/>
+      <c r="I122" s="43"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
@@ -5531,15 +6822,29 @@
       <c r="AA122" s="2"/>
     </row>
     <row r="123" ht="21.75" customHeight="1">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
+      <c r="A123" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="40">
+        <v>2020.01</v>
+      </c>
+      <c r="D123" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E123" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F123" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G123" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="H123" s="42"/>
+      <c r="I123" s="43"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
@@ -5560,15 +6865,29 @@
       <c r="AA123" s="2"/>
     </row>
     <row r="124" ht="21.75" customHeight="1">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
+      <c r="A124" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="40">
+        <v>2020.01</v>
+      </c>
+      <c r="D124" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E124" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F124" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G124" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" s="42"/>
+      <c r="I124" s="43"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
@@ -5589,15 +6908,29 @@
       <c r="AA124" s="2"/>
     </row>
     <row r="125" ht="21.75" customHeight="1">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
+      <c r="A125" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" s="40">
+        <v>2020.01</v>
+      </c>
+      <c r="D125" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E125" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F125" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G125" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H125" s="42"/>
+      <c r="I125" s="43"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
@@ -5705,14 +7038,9 @@
       <c r="AA128" s="2"/>
     </row>
     <row r="129" ht="21.75" customHeight="1">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
+      <c r="A129" s="97" t="s">
+        <v>165</v>
+      </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
@@ -5734,14 +7062,24 @@
       <c r="AA129" s="2"/>
     </row>
     <row r="130" ht="21.75" customHeight="1">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
+      <c r="A130" s="91" t="b">
+        <v>0</v>
+      </c>
+      <c r="B130" s="92"/>
+      <c r="C130" s="93"/>
+      <c r="D130" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="E130" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" s="95"/>
+      <c r="G130" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="H130" s="96" t="s">
+        <v>19</v>
+      </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
@@ -30992,49 +32330,1987 @@
       <c r="Z1000" s="2"/>
       <c r="AA1000" s="2"/>
     </row>
+    <row r="1001" ht="21.75" customHeight="1">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+      <c r="AA1001" s="2"/>
+    </row>
+    <row r="1002" ht="21.75" customHeight="1">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+      <c r="AA1002" s="2"/>
+    </row>
+    <row r="1003" ht="21.75" customHeight="1">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+      <c r="AA1003" s="2"/>
+    </row>
+    <row r="1004" ht="21.75" customHeight="1">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+      <c r="AA1004" s="2"/>
+    </row>
+    <row r="1005" ht="21.75" customHeight="1">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="2"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+      <c r="AA1005" s="2"/>
+    </row>
+    <row r="1006" ht="21.75" customHeight="1">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+      <c r="AA1006" s="2"/>
+    </row>
+    <row r="1007" ht="21.75" customHeight="1">
+      <c r="A1007" s="2"/>
+      <c r="B1007" s="2"/>
+      <c r="C1007" s="2"/>
+      <c r="D1007" s="2"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="2"/>
+      <c r="G1007" s="2"/>
+      <c r="H1007" s="2"/>
+      <c r="I1007" s="2"/>
+      <c r="J1007" s="2"/>
+      <c r="K1007" s="2"/>
+      <c r="L1007" s="2"/>
+      <c r="M1007" s="2"/>
+      <c r="N1007" s="2"/>
+      <c r="O1007" s="2"/>
+      <c r="P1007" s="2"/>
+      <c r="Q1007" s="2"/>
+      <c r="R1007" s="2"/>
+      <c r="S1007" s="2"/>
+      <c r="T1007" s="2"/>
+      <c r="U1007" s="2"/>
+      <c r="V1007" s="2"/>
+      <c r="W1007" s="2"/>
+      <c r="X1007" s="2"/>
+      <c r="Y1007" s="2"/>
+      <c r="Z1007" s="2"/>
+      <c r="AA1007" s="2"/>
+    </row>
+    <row r="1008" ht="21.75" customHeight="1">
+      <c r="A1008" s="2"/>
+      <c r="B1008" s="2"/>
+      <c r="C1008" s="2"/>
+      <c r="D1008" s="2"/>
+      <c r="E1008" s="2"/>
+      <c r="F1008" s="2"/>
+      <c r="G1008" s="2"/>
+      <c r="H1008" s="2"/>
+      <c r="I1008" s="2"/>
+      <c r="J1008" s="2"/>
+      <c r="K1008" s="2"/>
+      <c r="L1008" s="2"/>
+      <c r="M1008" s="2"/>
+      <c r="N1008" s="2"/>
+      <c r="O1008" s="2"/>
+      <c r="P1008" s="2"/>
+      <c r="Q1008" s="2"/>
+      <c r="R1008" s="2"/>
+      <c r="S1008" s="2"/>
+      <c r="T1008" s="2"/>
+      <c r="U1008" s="2"/>
+      <c r="V1008" s="2"/>
+      <c r="W1008" s="2"/>
+      <c r="X1008" s="2"/>
+      <c r="Y1008" s="2"/>
+      <c r="Z1008" s="2"/>
+      <c r="AA1008" s="2"/>
+    </row>
+    <row r="1009" ht="21.75" customHeight="1">
+      <c r="A1009" s="2"/>
+      <c r="B1009" s="2"/>
+      <c r="C1009" s="2"/>
+      <c r="D1009" s="2"/>
+      <c r="E1009" s="2"/>
+      <c r="F1009" s="2"/>
+      <c r="G1009" s="2"/>
+      <c r="H1009" s="2"/>
+      <c r="I1009" s="2"/>
+      <c r="J1009" s="2"/>
+      <c r="K1009" s="2"/>
+      <c r="L1009" s="2"/>
+      <c r="M1009" s="2"/>
+      <c r="N1009" s="2"/>
+      <c r="O1009" s="2"/>
+      <c r="P1009" s="2"/>
+      <c r="Q1009" s="2"/>
+      <c r="R1009" s="2"/>
+      <c r="S1009" s="2"/>
+      <c r="T1009" s="2"/>
+      <c r="U1009" s="2"/>
+      <c r="V1009" s="2"/>
+      <c r="W1009" s="2"/>
+      <c r="X1009" s="2"/>
+      <c r="Y1009" s="2"/>
+      <c r="Z1009" s="2"/>
+      <c r="AA1009" s="2"/>
+    </row>
+    <row r="1010" ht="21.75" customHeight="1">
+      <c r="A1010" s="2"/>
+      <c r="B1010" s="2"/>
+      <c r="C1010" s="2"/>
+      <c r="D1010" s="2"/>
+      <c r="E1010" s="2"/>
+      <c r="F1010" s="2"/>
+      <c r="G1010" s="2"/>
+      <c r="H1010" s="2"/>
+      <c r="I1010" s="2"/>
+      <c r="J1010" s="2"/>
+      <c r="K1010" s="2"/>
+      <c r="L1010" s="2"/>
+      <c r="M1010" s="2"/>
+      <c r="N1010" s="2"/>
+      <c r="O1010" s="2"/>
+      <c r="P1010" s="2"/>
+      <c r="Q1010" s="2"/>
+      <c r="R1010" s="2"/>
+      <c r="S1010" s="2"/>
+      <c r="T1010" s="2"/>
+      <c r="U1010" s="2"/>
+      <c r="V1010" s="2"/>
+      <c r="W1010" s="2"/>
+      <c r="X1010" s="2"/>
+      <c r="Y1010" s="2"/>
+      <c r="Z1010" s="2"/>
+      <c r="AA1010" s="2"/>
+    </row>
+    <row r="1011" ht="21.75" customHeight="1">
+      <c r="A1011" s="2"/>
+      <c r="B1011" s="2"/>
+      <c r="C1011" s="2"/>
+      <c r="D1011" s="2"/>
+      <c r="E1011" s="2"/>
+      <c r="F1011" s="2"/>
+      <c r="G1011" s="2"/>
+      <c r="H1011" s="2"/>
+      <c r="I1011" s="2"/>
+      <c r="J1011" s="2"/>
+      <c r="K1011" s="2"/>
+      <c r="L1011" s="2"/>
+      <c r="M1011" s="2"/>
+      <c r="N1011" s="2"/>
+      <c r="O1011" s="2"/>
+      <c r="P1011" s="2"/>
+      <c r="Q1011" s="2"/>
+      <c r="R1011" s="2"/>
+      <c r="S1011" s="2"/>
+      <c r="T1011" s="2"/>
+      <c r="U1011" s="2"/>
+      <c r="V1011" s="2"/>
+      <c r="W1011" s="2"/>
+      <c r="X1011" s="2"/>
+      <c r="Y1011" s="2"/>
+      <c r="Z1011" s="2"/>
+      <c r="AA1011" s="2"/>
+    </row>
+    <row r="1012" ht="21.75" customHeight="1">
+      <c r="A1012" s="2"/>
+      <c r="B1012" s="2"/>
+      <c r="C1012" s="2"/>
+      <c r="D1012" s="2"/>
+      <c r="E1012" s="2"/>
+      <c r="F1012" s="2"/>
+      <c r="G1012" s="2"/>
+      <c r="H1012" s="2"/>
+      <c r="I1012" s="2"/>
+      <c r="J1012" s="2"/>
+      <c r="K1012" s="2"/>
+      <c r="L1012" s="2"/>
+      <c r="M1012" s="2"/>
+      <c r="N1012" s="2"/>
+      <c r="O1012" s="2"/>
+      <c r="P1012" s="2"/>
+      <c r="Q1012" s="2"/>
+      <c r="R1012" s="2"/>
+      <c r="S1012" s="2"/>
+      <c r="T1012" s="2"/>
+      <c r="U1012" s="2"/>
+      <c r="V1012" s="2"/>
+      <c r="W1012" s="2"/>
+      <c r="X1012" s="2"/>
+      <c r="Y1012" s="2"/>
+      <c r="Z1012" s="2"/>
+      <c r="AA1012" s="2"/>
+    </row>
+    <row r="1013" ht="21.75" customHeight="1">
+      <c r="A1013" s="2"/>
+      <c r="B1013" s="2"/>
+      <c r="C1013" s="2"/>
+      <c r="D1013" s="2"/>
+      <c r="E1013" s="2"/>
+      <c r="F1013" s="2"/>
+      <c r="G1013" s="2"/>
+      <c r="H1013" s="2"/>
+      <c r="I1013" s="2"/>
+      <c r="J1013" s="2"/>
+      <c r="K1013" s="2"/>
+      <c r="L1013" s="2"/>
+      <c r="M1013" s="2"/>
+      <c r="N1013" s="2"/>
+      <c r="O1013" s="2"/>
+      <c r="P1013" s="2"/>
+      <c r="Q1013" s="2"/>
+      <c r="R1013" s="2"/>
+      <c r="S1013" s="2"/>
+      <c r="T1013" s="2"/>
+      <c r="U1013" s="2"/>
+      <c r="V1013" s="2"/>
+      <c r="W1013" s="2"/>
+      <c r="X1013" s="2"/>
+      <c r="Y1013" s="2"/>
+      <c r="Z1013" s="2"/>
+      <c r="AA1013" s="2"/>
+    </row>
+    <row r="1014" ht="21.75" customHeight="1">
+      <c r="A1014" s="2"/>
+      <c r="B1014" s="2"/>
+      <c r="C1014" s="2"/>
+      <c r="D1014" s="2"/>
+      <c r="E1014" s="2"/>
+      <c r="F1014" s="2"/>
+      <c r="G1014" s="2"/>
+      <c r="H1014" s="2"/>
+      <c r="I1014" s="2"/>
+      <c r="J1014" s="2"/>
+      <c r="K1014" s="2"/>
+      <c r="L1014" s="2"/>
+      <c r="M1014" s="2"/>
+      <c r="N1014" s="2"/>
+      <c r="O1014" s="2"/>
+      <c r="P1014" s="2"/>
+      <c r="Q1014" s="2"/>
+      <c r="R1014" s="2"/>
+      <c r="S1014" s="2"/>
+      <c r="T1014" s="2"/>
+      <c r="U1014" s="2"/>
+      <c r="V1014" s="2"/>
+      <c r="W1014" s="2"/>
+      <c r="X1014" s="2"/>
+      <c r="Y1014" s="2"/>
+      <c r="Z1014" s="2"/>
+      <c r="AA1014" s="2"/>
+    </row>
+    <row r="1015" ht="21.75" customHeight="1">
+      <c r="A1015" s="2"/>
+      <c r="B1015" s="2"/>
+      <c r="C1015" s="2"/>
+      <c r="D1015" s="2"/>
+      <c r="E1015" s="2"/>
+      <c r="F1015" s="2"/>
+      <c r="G1015" s="2"/>
+      <c r="H1015" s="2"/>
+      <c r="I1015" s="2"/>
+      <c r="J1015" s="2"/>
+      <c r="K1015" s="2"/>
+      <c r="L1015" s="2"/>
+      <c r="M1015" s="2"/>
+      <c r="N1015" s="2"/>
+      <c r="O1015" s="2"/>
+      <c r="P1015" s="2"/>
+      <c r="Q1015" s="2"/>
+      <c r="R1015" s="2"/>
+      <c r="S1015" s="2"/>
+      <c r="T1015" s="2"/>
+      <c r="U1015" s="2"/>
+      <c r="V1015" s="2"/>
+      <c r="W1015" s="2"/>
+      <c r="X1015" s="2"/>
+      <c r="Y1015" s="2"/>
+      <c r="Z1015" s="2"/>
+      <c r="AA1015" s="2"/>
+    </row>
+    <row r="1016" ht="21.75" customHeight="1">
+      <c r="A1016" s="2"/>
+      <c r="B1016" s="2"/>
+      <c r="C1016" s="2"/>
+      <c r="D1016" s="2"/>
+      <c r="E1016" s="2"/>
+      <c r="F1016" s="2"/>
+      <c r="G1016" s="2"/>
+      <c r="H1016" s="2"/>
+      <c r="I1016" s="2"/>
+      <c r="J1016" s="2"/>
+      <c r="K1016" s="2"/>
+      <c r="L1016" s="2"/>
+      <c r="M1016" s="2"/>
+      <c r="N1016" s="2"/>
+      <c r="O1016" s="2"/>
+      <c r="P1016" s="2"/>
+      <c r="Q1016" s="2"/>
+      <c r="R1016" s="2"/>
+      <c r="S1016" s="2"/>
+      <c r="T1016" s="2"/>
+      <c r="U1016" s="2"/>
+      <c r="V1016" s="2"/>
+      <c r="W1016" s="2"/>
+      <c r="X1016" s="2"/>
+      <c r="Y1016" s="2"/>
+      <c r="Z1016" s="2"/>
+      <c r="AA1016" s="2"/>
+    </row>
+    <row r="1017" ht="21.75" customHeight="1">
+      <c r="A1017" s="2"/>
+      <c r="B1017" s="2"/>
+      <c r="C1017" s="2"/>
+      <c r="D1017" s="2"/>
+      <c r="E1017" s="2"/>
+      <c r="F1017" s="2"/>
+      <c r="G1017" s="2"/>
+      <c r="H1017" s="2"/>
+      <c r="I1017" s="2"/>
+      <c r="J1017" s="2"/>
+      <c r="K1017" s="2"/>
+      <c r="L1017" s="2"/>
+      <c r="M1017" s="2"/>
+      <c r="N1017" s="2"/>
+      <c r="O1017" s="2"/>
+      <c r="P1017" s="2"/>
+      <c r="Q1017" s="2"/>
+      <c r="R1017" s="2"/>
+      <c r="S1017" s="2"/>
+      <c r="T1017" s="2"/>
+      <c r="U1017" s="2"/>
+      <c r="V1017" s="2"/>
+      <c r="W1017" s="2"/>
+      <c r="X1017" s="2"/>
+      <c r="Y1017" s="2"/>
+      <c r="Z1017" s="2"/>
+      <c r="AA1017" s="2"/>
+    </row>
+    <row r="1018" ht="21.75" customHeight="1">
+      <c r="A1018" s="2"/>
+      <c r="B1018" s="2"/>
+      <c r="C1018" s="2"/>
+      <c r="D1018" s="2"/>
+      <c r="E1018" s="2"/>
+      <c r="F1018" s="2"/>
+      <c r="G1018" s="2"/>
+      <c r="H1018" s="2"/>
+      <c r="I1018" s="2"/>
+      <c r="J1018" s="2"/>
+      <c r="K1018" s="2"/>
+      <c r="L1018" s="2"/>
+      <c r="M1018" s="2"/>
+      <c r="N1018" s="2"/>
+      <c r="O1018" s="2"/>
+      <c r="P1018" s="2"/>
+      <c r="Q1018" s="2"/>
+      <c r="R1018" s="2"/>
+      <c r="S1018" s="2"/>
+      <c r="T1018" s="2"/>
+      <c r="U1018" s="2"/>
+      <c r="V1018" s="2"/>
+      <c r="W1018" s="2"/>
+      <c r="X1018" s="2"/>
+      <c r="Y1018" s="2"/>
+      <c r="Z1018" s="2"/>
+      <c r="AA1018" s="2"/>
+    </row>
+    <row r="1019" ht="21.75" customHeight="1">
+      <c r="A1019" s="2"/>
+      <c r="B1019" s="2"/>
+      <c r="C1019" s="2"/>
+      <c r="D1019" s="2"/>
+      <c r="E1019" s="2"/>
+      <c r="F1019" s="2"/>
+      <c r="G1019" s="2"/>
+      <c r="H1019" s="2"/>
+      <c r="I1019" s="2"/>
+      <c r="J1019" s="2"/>
+      <c r="K1019" s="2"/>
+      <c r="L1019" s="2"/>
+      <c r="M1019" s="2"/>
+      <c r="N1019" s="2"/>
+      <c r="O1019" s="2"/>
+      <c r="P1019" s="2"/>
+      <c r="Q1019" s="2"/>
+      <c r="R1019" s="2"/>
+      <c r="S1019" s="2"/>
+      <c r="T1019" s="2"/>
+      <c r="U1019" s="2"/>
+      <c r="V1019" s="2"/>
+      <c r="W1019" s="2"/>
+      <c r="X1019" s="2"/>
+      <c r="Y1019" s="2"/>
+      <c r="Z1019" s="2"/>
+      <c r="AA1019" s="2"/>
+    </row>
+    <row r="1020" ht="21.75" customHeight="1">
+      <c r="A1020" s="2"/>
+      <c r="B1020" s="2"/>
+      <c r="C1020" s="2"/>
+      <c r="D1020" s="2"/>
+      <c r="E1020" s="2"/>
+      <c r="F1020" s="2"/>
+      <c r="G1020" s="2"/>
+      <c r="H1020" s="2"/>
+      <c r="I1020" s="2"/>
+      <c r="J1020" s="2"/>
+      <c r="K1020" s="2"/>
+      <c r="L1020" s="2"/>
+      <c r="M1020" s="2"/>
+      <c r="N1020" s="2"/>
+      <c r="O1020" s="2"/>
+      <c r="P1020" s="2"/>
+      <c r="Q1020" s="2"/>
+      <c r="R1020" s="2"/>
+      <c r="S1020" s="2"/>
+      <c r="T1020" s="2"/>
+      <c r="U1020" s="2"/>
+      <c r="V1020" s="2"/>
+      <c r="W1020" s="2"/>
+      <c r="X1020" s="2"/>
+      <c r="Y1020" s="2"/>
+      <c r="Z1020" s="2"/>
+      <c r="AA1020" s="2"/>
+    </row>
+    <row r="1021" ht="21.75" customHeight="1">
+      <c r="A1021" s="2"/>
+      <c r="B1021" s="2"/>
+      <c r="C1021" s="2"/>
+      <c r="D1021" s="2"/>
+      <c r="E1021" s="2"/>
+      <c r="F1021" s="2"/>
+      <c r="G1021" s="2"/>
+      <c r="H1021" s="2"/>
+      <c r="I1021" s="2"/>
+      <c r="J1021" s="2"/>
+      <c r="K1021" s="2"/>
+      <c r="L1021" s="2"/>
+      <c r="M1021" s="2"/>
+      <c r="N1021" s="2"/>
+      <c r="O1021" s="2"/>
+      <c r="P1021" s="2"/>
+      <c r="Q1021" s="2"/>
+      <c r="R1021" s="2"/>
+      <c r="S1021" s="2"/>
+      <c r="T1021" s="2"/>
+      <c r="U1021" s="2"/>
+      <c r="V1021" s="2"/>
+      <c r="W1021" s="2"/>
+      <c r="X1021" s="2"/>
+      <c r="Y1021" s="2"/>
+      <c r="Z1021" s="2"/>
+      <c r="AA1021" s="2"/>
+    </row>
+    <row r="1022" ht="21.75" customHeight="1">
+      <c r="A1022" s="2"/>
+      <c r="B1022" s="2"/>
+      <c r="C1022" s="2"/>
+      <c r="D1022" s="2"/>
+      <c r="E1022" s="2"/>
+      <c r="F1022" s="2"/>
+      <c r="G1022" s="2"/>
+      <c r="H1022" s="2"/>
+      <c r="I1022" s="2"/>
+      <c r="J1022" s="2"/>
+      <c r="K1022" s="2"/>
+      <c r="L1022" s="2"/>
+      <c r="M1022" s="2"/>
+      <c r="N1022" s="2"/>
+      <c r="O1022" s="2"/>
+      <c r="P1022" s="2"/>
+      <c r="Q1022" s="2"/>
+      <c r="R1022" s="2"/>
+      <c r="S1022" s="2"/>
+      <c r="T1022" s="2"/>
+      <c r="U1022" s="2"/>
+      <c r="V1022" s="2"/>
+      <c r="W1022" s="2"/>
+      <c r="X1022" s="2"/>
+      <c r="Y1022" s="2"/>
+      <c r="Z1022" s="2"/>
+      <c r="AA1022" s="2"/>
+    </row>
+    <row r="1023" ht="21.75" customHeight="1">
+      <c r="A1023" s="2"/>
+      <c r="B1023" s="2"/>
+      <c r="C1023" s="2"/>
+      <c r="D1023" s="2"/>
+      <c r="E1023" s="2"/>
+      <c r="F1023" s="2"/>
+      <c r="G1023" s="2"/>
+      <c r="H1023" s="2"/>
+      <c r="I1023" s="2"/>
+      <c r="J1023" s="2"/>
+      <c r="K1023" s="2"/>
+      <c r="L1023" s="2"/>
+      <c r="M1023" s="2"/>
+      <c r="N1023" s="2"/>
+      <c r="O1023" s="2"/>
+      <c r="P1023" s="2"/>
+      <c r="Q1023" s="2"/>
+      <c r="R1023" s="2"/>
+      <c r="S1023" s="2"/>
+      <c r="T1023" s="2"/>
+      <c r="U1023" s="2"/>
+      <c r="V1023" s="2"/>
+      <c r="W1023" s="2"/>
+      <c r="X1023" s="2"/>
+      <c r="Y1023" s="2"/>
+      <c r="Z1023" s="2"/>
+      <c r="AA1023" s="2"/>
+    </row>
+    <row r="1024" ht="21.75" customHeight="1">
+      <c r="A1024" s="2"/>
+      <c r="B1024" s="2"/>
+      <c r="C1024" s="2"/>
+      <c r="D1024" s="2"/>
+      <c r="E1024" s="2"/>
+      <c r="F1024" s="2"/>
+      <c r="G1024" s="2"/>
+      <c r="H1024" s="2"/>
+      <c r="I1024" s="2"/>
+      <c r="J1024" s="2"/>
+      <c r="K1024" s="2"/>
+      <c r="L1024" s="2"/>
+      <c r="M1024" s="2"/>
+      <c r="N1024" s="2"/>
+      <c r="O1024" s="2"/>
+      <c r="P1024" s="2"/>
+      <c r="Q1024" s="2"/>
+      <c r="R1024" s="2"/>
+      <c r="S1024" s="2"/>
+      <c r="T1024" s="2"/>
+      <c r="U1024" s="2"/>
+      <c r="V1024" s="2"/>
+      <c r="W1024" s="2"/>
+      <c r="X1024" s="2"/>
+      <c r="Y1024" s="2"/>
+      <c r="Z1024" s="2"/>
+      <c r="AA1024" s="2"/>
+    </row>
+    <row r="1025" ht="21.75" customHeight="1">
+      <c r="A1025" s="2"/>
+      <c r="B1025" s="2"/>
+      <c r="C1025" s="2"/>
+      <c r="D1025" s="2"/>
+      <c r="E1025" s="2"/>
+      <c r="F1025" s="2"/>
+      <c r="G1025" s="2"/>
+      <c r="H1025" s="2"/>
+      <c r="I1025" s="2"/>
+      <c r="J1025" s="2"/>
+      <c r="K1025" s="2"/>
+      <c r="L1025" s="2"/>
+      <c r="M1025" s="2"/>
+      <c r="N1025" s="2"/>
+      <c r="O1025" s="2"/>
+      <c r="P1025" s="2"/>
+      <c r="Q1025" s="2"/>
+      <c r="R1025" s="2"/>
+      <c r="S1025" s="2"/>
+      <c r="T1025" s="2"/>
+      <c r="U1025" s="2"/>
+      <c r="V1025" s="2"/>
+      <c r="W1025" s="2"/>
+      <c r="X1025" s="2"/>
+      <c r="Y1025" s="2"/>
+      <c r="Z1025" s="2"/>
+      <c r="AA1025" s="2"/>
+    </row>
+    <row r="1026" ht="21.75" customHeight="1">
+      <c r="A1026" s="2"/>
+      <c r="B1026" s="2"/>
+      <c r="C1026" s="2"/>
+      <c r="D1026" s="2"/>
+      <c r="E1026" s="2"/>
+      <c r="F1026" s="2"/>
+      <c r="G1026" s="2"/>
+      <c r="H1026" s="2"/>
+      <c r="I1026" s="2"/>
+      <c r="J1026" s="2"/>
+      <c r="K1026" s="2"/>
+      <c r="L1026" s="2"/>
+      <c r="M1026" s="2"/>
+      <c r="N1026" s="2"/>
+      <c r="O1026" s="2"/>
+      <c r="P1026" s="2"/>
+      <c r="Q1026" s="2"/>
+      <c r="R1026" s="2"/>
+      <c r="S1026" s="2"/>
+      <c r="T1026" s="2"/>
+      <c r="U1026" s="2"/>
+      <c r="V1026" s="2"/>
+      <c r="W1026" s="2"/>
+      <c r="X1026" s="2"/>
+      <c r="Y1026" s="2"/>
+      <c r="Z1026" s="2"/>
+      <c r="AA1026" s="2"/>
+    </row>
+    <row r="1027" ht="21.75" customHeight="1">
+      <c r="A1027" s="2"/>
+      <c r="B1027" s="2"/>
+      <c r="C1027" s="2"/>
+      <c r="D1027" s="2"/>
+      <c r="E1027" s="2"/>
+      <c r="F1027" s="2"/>
+      <c r="G1027" s="2"/>
+      <c r="H1027" s="2"/>
+      <c r="I1027" s="2"/>
+      <c r="J1027" s="2"/>
+      <c r="K1027" s="2"/>
+      <c r="L1027" s="2"/>
+      <c r="M1027" s="2"/>
+      <c r="N1027" s="2"/>
+      <c r="O1027" s="2"/>
+      <c r="P1027" s="2"/>
+      <c r="Q1027" s="2"/>
+      <c r="R1027" s="2"/>
+      <c r="S1027" s="2"/>
+      <c r="T1027" s="2"/>
+      <c r="U1027" s="2"/>
+      <c r="V1027" s="2"/>
+      <c r="W1027" s="2"/>
+      <c r="X1027" s="2"/>
+      <c r="Y1027" s="2"/>
+      <c r="Z1027" s="2"/>
+      <c r="AA1027" s="2"/>
+    </row>
+    <row r="1028" ht="21.75" customHeight="1">
+      <c r="A1028" s="2"/>
+      <c r="B1028" s="2"/>
+      <c r="C1028" s="2"/>
+      <c r="D1028" s="2"/>
+      <c r="E1028" s="2"/>
+      <c r="F1028" s="2"/>
+      <c r="G1028" s="2"/>
+      <c r="H1028" s="2"/>
+      <c r="I1028" s="2"/>
+      <c r="J1028" s="2"/>
+      <c r="K1028" s="2"/>
+      <c r="L1028" s="2"/>
+      <c r="M1028" s="2"/>
+      <c r="N1028" s="2"/>
+      <c r="O1028" s="2"/>
+      <c r="P1028" s="2"/>
+      <c r="Q1028" s="2"/>
+      <c r="R1028" s="2"/>
+      <c r="S1028" s="2"/>
+      <c r="T1028" s="2"/>
+      <c r="U1028" s="2"/>
+      <c r="V1028" s="2"/>
+      <c r="W1028" s="2"/>
+      <c r="X1028" s="2"/>
+      <c r="Y1028" s="2"/>
+      <c r="Z1028" s="2"/>
+      <c r="AA1028" s="2"/>
+    </row>
+    <row r="1029" ht="21.75" customHeight="1">
+      <c r="A1029" s="2"/>
+      <c r="B1029" s="2"/>
+      <c r="C1029" s="2"/>
+      <c r="D1029" s="2"/>
+      <c r="E1029" s="2"/>
+      <c r="F1029" s="2"/>
+      <c r="G1029" s="2"/>
+      <c r="H1029" s="2"/>
+      <c r="I1029" s="2"/>
+      <c r="J1029" s="2"/>
+      <c r="K1029" s="2"/>
+      <c r="L1029" s="2"/>
+      <c r="M1029" s="2"/>
+      <c r="N1029" s="2"/>
+      <c r="O1029" s="2"/>
+      <c r="P1029" s="2"/>
+      <c r="Q1029" s="2"/>
+      <c r="R1029" s="2"/>
+      <c r="S1029" s="2"/>
+      <c r="T1029" s="2"/>
+      <c r="U1029" s="2"/>
+      <c r="V1029" s="2"/>
+      <c r="W1029" s="2"/>
+      <c r="X1029" s="2"/>
+      <c r="Y1029" s="2"/>
+      <c r="Z1029" s="2"/>
+      <c r="AA1029" s="2"/>
+    </row>
+    <row r="1030" ht="21.75" customHeight="1">
+      <c r="A1030" s="2"/>
+      <c r="B1030" s="2"/>
+      <c r="C1030" s="2"/>
+      <c r="D1030" s="2"/>
+      <c r="E1030" s="2"/>
+      <c r="F1030" s="2"/>
+      <c r="G1030" s="2"/>
+      <c r="H1030" s="2"/>
+      <c r="I1030" s="2"/>
+      <c r="J1030" s="2"/>
+      <c r="K1030" s="2"/>
+      <c r="L1030" s="2"/>
+      <c r="M1030" s="2"/>
+      <c r="N1030" s="2"/>
+      <c r="O1030" s="2"/>
+      <c r="P1030" s="2"/>
+      <c r="Q1030" s="2"/>
+      <c r="R1030" s="2"/>
+      <c r="S1030" s="2"/>
+      <c r="T1030" s="2"/>
+      <c r="U1030" s="2"/>
+      <c r="V1030" s="2"/>
+      <c r="W1030" s="2"/>
+      <c r="X1030" s="2"/>
+      <c r="Y1030" s="2"/>
+      <c r="Z1030" s="2"/>
+      <c r="AA1030" s="2"/>
+    </row>
+    <row r="1031" ht="21.75" customHeight="1">
+      <c r="A1031" s="2"/>
+      <c r="B1031" s="2"/>
+      <c r="C1031" s="2"/>
+      <c r="D1031" s="2"/>
+      <c r="E1031" s="2"/>
+      <c r="F1031" s="2"/>
+      <c r="G1031" s="2"/>
+      <c r="H1031" s="2"/>
+      <c r="I1031" s="2"/>
+      <c r="J1031" s="2"/>
+      <c r="K1031" s="2"/>
+      <c r="L1031" s="2"/>
+      <c r="M1031" s="2"/>
+      <c r="N1031" s="2"/>
+      <c r="O1031" s="2"/>
+      <c r="P1031" s="2"/>
+      <c r="Q1031" s="2"/>
+      <c r="R1031" s="2"/>
+      <c r="S1031" s="2"/>
+      <c r="T1031" s="2"/>
+      <c r="U1031" s="2"/>
+      <c r="V1031" s="2"/>
+      <c r="W1031" s="2"/>
+      <c r="X1031" s="2"/>
+      <c r="Y1031" s="2"/>
+      <c r="Z1031" s="2"/>
+      <c r="AA1031" s="2"/>
+    </row>
+    <row r="1032" ht="21.75" customHeight="1">
+      <c r="A1032" s="2"/>
+      <c r="B1032" s="2"/>
+      <c r="C1032" s="2"/>
+      <c r="D1032" s="2"/>
+      <c r="E1032" s="2"/>
+      <c r="F1032" s="2"/>
+      <c r="G1032" s="2"/>
+      <c r="H1032" s="2"/>
+      <c r="I1032" s="2"/>
+      <c r="J1032" s="2"/>
+      <c r="K1032" s="2"/>
+      <c r="L1032" s="2"/>
+      <c r="M1032" s="2"/>
+      <c r="N1032" s="2"/>
+      <c r="O1032" s="2"/>
+      <c r="P1032" s="2"/>
+      <c r="Q1032" s="2"/>
+      <c r="R1032" s="2"/>
+      <c r="S1032" s="2"/>
+      <c r="T1032" s="2"/>
+      <c r="U1032" s="2"/>
+      <c r="V1032" s="2"/>
+      <c r="W1032" s="2"/>
+      <c r="X1032" s="2"/>
+      <c r="Y1032" s="2"/>
+      <c r="Z1032" s="2"/>
+      <c r="AA1032" s="2"/>
+    </row>
+    <row r="1033" ht="21.75" customHeight="1">
+      <c r="A1033" s="2"/>
+      <c r="B1033" s="2"/>
+      <c r="C1033" s="2"/>
+      <c r="D1033" s="2"/>
+      <c r="E1033" s="2"/>
+      <c r="F1033" s="2"/>
+      <c r="G1033" s="2"/>
+      <c r="H1033" s="2"/>
+      <c r="I1033" s="2"/>
+      <c r="J1033" s="2"/>
+      <c r="K1033" s="2"/>
+      <c r="L1033" s="2"/>
+      <c r="M1033" s="2"/>
+      <c r="N1033" s="2"/>
+      <c r="O1033" s="2"/>
+      <c r="P1033" s="2"/>
+      <c r="Q1033" s="2"/>
+      <c r="R1033" s="2"/>
+      <c r="S1033" s="2"/>
+      <c r="T1033" s="2"/>
+      <c r="U1033" s="2"/>
+      <c r="V1033" s="2"/>
+      <c r="W1033" s="2"/>
+      <c r="X1033" s="2"/>
+      <c r="Y1033" s="2"/>
+      <c r="Z1033" s="2"/>
+      <c r="AA1033" s="2"/>
+    </row>
+    <row r="1034" ht="21.75" customHeight="1">
+      <c r="A1034" s="2"/>
+      <c r="B1034" s="2"/>
+      <c r="C1034" s="2"/>
+      <c r="D1034" s="2"/>
+      <c r="E1034" s="2"/>
+      <c r="F1034" s="2"/>
+      <c r="G1034" s="2"/>
+      <c r="H1034" s="2"/>
+      <c r="I1034" s="2"/>
+      <c r="J1034" s="2"/>
+      <c r="K1034" s="2"/>
+      <c r="L1034" s="2"/>
+      <c r="M1034" s="2"/>
+      <c r="N1034" s="2"/>
+      <c r="O1034" s="2"/>
+      <c r="P1034" s="2"/>
+      <c r="Q1034" s="2"/>
+      <c r="R1034" s="2"/>
+      <c r="S1034" s="2"/>
+      <c r="T1034" s="2"/>
+      <c r="U1034" s="2"/>
+      <c r="V1034" s="2"/>
+      <c r="W1034" s="2"/>
+      <c r="X1034" s="2"/>
+      <c r="Y1034" s="2"/>
+      <c r="Z1034" s="2"/>
+      <c r="AA1034" s="2"/>
+    </row>
+    <row r="1035" ht="21.75" customHeight="1">
+      <c r="A1035" s="2"/>
+      <c r="B1035" s="2"/>
+      <c r="C1035" s="2"/>
+      <c r="D1035" s="2"/>
+      <c r="E1035" s="2"/>
+      <c r="F1035" s="2"/>
+      <c r="G1035" s="2"/>
+      <c r="H1035" s="2"/>
+      <c r="I1035" s="2"/>
+      <c r="J1035" s="2"/>
+      <c r="K1035" s="2"/>
+      <c r="L1035" s="2"/>
+      <c r="M1035" s="2"/>
+      <c r="N1035" s="2"/>
+      <c r="O1035" s="2"/>
+      <c r="P1035" s="2"/>
+      <c r="Q1035" s="2"/>
+      <c r="R1035" s="2"/>
+      <c r="S1035" s="2"/>
+      <c r="T1035" s="2"/>
+      <c r="U1035" s="2"/>
+      <c r="V1035" s="2"/>
+      <c r="W1035" s="2"/>
+      <c r="X1035" s="2"/>
+      <c r="Y1035" s="2"/>
+      <c r="Z1035" s="2"/>
+      <c r="AA1035" s="2"/>
+    </row>
+    <row r="1036" ht="21.75" customHeight="1">
+      <c r="A1036" s="2"/>
+      <c r="B1036" s="2"/>
+      <c r="C1036" s="2"/>
+      <c r="D1036" s="2"/>
+      <c r="E1036" s="2"/>
+      <c r="F1036" s="2"/>
+      <c r="G1036" s="2"/>
+      <c r="H1036" s="2"/>
+      <c r="I1036" s="2"/>
+      <c r="J1036" s="2"/>
+      <c r="K1036" s="2"/>
+      <c r="L1036" s="2"/>
+      <c r="M1036" s="2"/>
+      <c r="N1036" s="2"/>
+      <c r="O1036" s="2"/>
+      <c r="P1036" s="2"/>
+      <c r="Q1036" s="2"/>
+      <c r="R1036" s="2"/>
+      <c r="S1036" s="2"/>
+      <c r="T1036" s="2"/>
+      <c r="U1036" s="2"/>
+      <c r="V1036" s="2"/>
+      <c r="W1036" s="2"/>
+      <c r="X1036" s="2"/>
+      <c r="Y1036" s="2"/>
+      <c r="Z1036" s="2"/>
+      <c r="AA1036" s="2"/>
+    </row>
+    <row r="1037" ht="21.75" customHeight="1">
+      <c r="A1037" s="2"/>
+      <c r="B1037" s="2"/>
+      <c r="C1037" s="2"/>
+      <c r="D1037" s="2"/>
+      <c r="E1037" s="2"/>
+      <c r="F1037" s="2"/>
+      <c r="G1037" s="2"/>
+      <c r="H1037" s="2"/>
+      <c r="I1037" s="2"/>
+      <c r="J1037" s="2"/>
+      <c r="K1037" s="2"/>
+      <c r="L1037" s="2"/>
+      <c r="M1037" s="2"/>
+      <c r="N1037" s="2"/>
+      <c r="O1037" s="2"/>
+      <c r="P1037" s="2"/>
+      <c r="Q1037" s="2"/>
+      <c r="R1037" s="2"/>
+      <c r="S1037" s="2"/>
+      <c r="T1037" s="2"/>
+      <c r="U1037" s="2"/>
+      <c r="V1037" s="2"/>
+      <c r="W1037" s="2"/>
+      <c r="X1037" s="2"/>
+      <c r="Y1037" s="2"/>
+      <c r="Z1037" s="2"/>
+      <c r="AA1037" s="2"/>
+    </row>
+    <row r="1038" ht="21.75" customHeight="1">
+      <c r="A1038" s="2"/>
+      <c r="B1038" s="2"/>
+      <c r="C1038" s="2"/>
+      <c r="D1038" s="2"/>
+      <c r="E1038" s="2"/>
+      <c r="F1038" s="2"/>
+      <c r="G1038" s="2"/>
+      <c r="H1038" s="2"/>
+      <c r="I1038" s="2"/>
+      <c r="J1038" s="2"/>
+      <c r="K1038" s="2"/>
+      <c r="L1038" s="2"/>
+      <c r="M1038" s="2"/>
+      <c r="N1038" s="2"/>
+      <c r="O1038" s="2"/>
+      <c r="P1038" s="2"/>
+      <c r="Q1038" s="2"/>
+      <c r="R1038" s="2"/>
+      <c r="S1038" s="2"/>
+      <c r="T1038" s="2"/>
+      <c r="U1038" s="2"/>
+      <c r="V1038" s="2"/>
+      <c r="W1038" s="2"/>
+      <c r="X1038" s="2"/>
+      <c r="Y1038" s="2"/>
+      <c r="Z1038" s="2"/>
+      <c r="AA1038" s="2"/>
+    </row>
+    <row r="1039" ht="21.75" customHeight="1">
+      <c r="A1039" s="2"/>
+      <c r="B1039" s="2"/>
+      <c r="C1039" s="2"/>
+      <c r="D1039" s="2"/>
+      <c r="E1039" s="2"/>
+      <c r="F1039" s="2"/>
+      <c r="G1039" s="2"/>
+      <c r="H1039" s="2"/>
+      <c r="I1039" s="2"/>
+      <c r="J1039" s="2"/>
+      <c r="K1039" s="2"/>
+      <c r="L1039" s="2"/>
+      <c r="M1039" s="2"/>
+      <c r="N1039" s="2"/>
+      <c r="O1039" s="2"/>
+      <c r="P1039" s="2"/>
+      <c r="Q1039" s="2"/>
+      <c r="R1039" s="2"/>
+      <c r="S1039" s="2"/>
+      <c r="T1039" s="2"/>
+      <c r="U1039" s="2"/>
+      <c r="V1039" s="2"/>
+      <c r="W1039" s="2"/>
+      <c r="X1039" s="2"/>
+      <c r="Y1039" s="2"/>
+      <c r="Z1039" s="2"/>
+      <c r="AA1039" s="2"/>
+    </row>
+    <row r="1040" ht="21.75" customHeight="1">
+      <c r="A1040" s="2"/>
+      <c r="B1040" s="2"/>
+      <c r="C1040" s="2"/>
+      <c r="D1040" s="2"/>
+      <c r="E1040" s="2"/>
+      <c r="F1040" s="2"/>
+      <c r="G1040" s="2"/>
+      <c r="H1040" s="2"/>
+      <c r="I1040" s="2"/>
+      <c r="J1040" s="2"/>
+      <c r="K1040" s="2"/>
+      <c r="L1040" s="2"/>
+      <c r="M1040" s="2"/>
+      <c r="N1040" s="2"/>
+      <c r="O1040" s="2"/>
+      <c r="P1040" s="2"/>
+      <c r="Q1040" s="2"/>
+      <c r="R1040" s="2"/>
+      <c r="S1040" s="2"/>
+      <c r="T1040" s="2"/>
+      <c r="U1040" s="2"/>
+      <c r="V1040" s="2"/>
+      <c r="W1040" s="2"/>
+      <c r="X1040" s="2"/>
+      <c r="Y1040" s="2"/>
+      <c r="Z1040" s="2"/>
+      <c r="AA1040" s="2"/>
+    </row>
+    <row r="1041" ht="21.75" customHeight="1">
+      <c r="A1041" s="2"/>
+      <c r="B1041" s="2"/>
+      <c r="C1041" s="2"/>
+      <c r="D1041" s="2"/>
+      <c r="E1041" s="2"/>
+      <c r="F1041" s="2"/>
+      <c r="G1041" s="2"/>
+      <c r="H1041" s="2"/>
+      <c r="I1041" s="2"/>
+      <c r="J1041" s="2"/>
+      <c r="K1041" s="2"/>
+      <c r="L1041" s="2"/>
+      <c r="M1041" s="2"/>
+      <c r="N1041" s="2"/>
+      <c r="O1041" s="2"/>
+      <c r="P1041" s="2"/>
+      <c r="Q1041" s="2"/>
+      <c r="R1041" s="2"/>
+      <c r="S1041" s="2"/>
+      <c r="T1041" s="2"/>
+      <c r="U1041" s="2"/>
+      <c r="V1041" s="2"/>
+      <c r="W1041" s="2"/>
+      <c r="X1041" s="2"/>
+      <c r="Y1041" s="2"/>
+      <c r="Z1041" s="2"/>
+      <c r="AA1041" s="2"/>
+    </row>
+    <row r="1042" ht="21.75" customHeight="1">
+      <c r="A1042" s="2"/>
+      <c r="B1042" s="2"/>
+      <c r="C1042" s="2"/>
+      <c r="D1042" s="2"/>
+      <c r="E1042" s="2"/>
+      <c r="F1042" s="2"/>
+      <c r="G1042" s="2"/>
+      <c r="H1042" s="2"/>
+      <c r="I1042" s="2"/>
+      <c r="J1042" s="2"/>
+      <c r="K1042" s="2"/>
+      <c r="L1042" s="2"/>
+      <c r="M1042" s="2"/>
+      <c r="N1042" s="2"/>
+      <c r="O1042" s="2"/>
+      <c r="P1042" s="2"/>
+      <c r="Q1042" s="2"/>
+      <c r="R1042" s="2"/>
+      <c r="S1042" s="2"/>
+      <c r="T1042" s="2"/>
+      <c r="U1042" s="2"/>
+      <c r="V1042" s="2"/>
+      <c r="W1042" s="2"/>
+      <c r="X1042" s="2"/>
+      <c r="Y1042" s="2"/>
+      <c r="Z1042" s="2"/>
+      <c r="AA1042" s="2"/>
+    </row>
+    <row r="1043" ht="21.75" customHeight="1">
+      <c r="A1043" s="2"/>
+      <c r="B1043" s="2"/>
+      <c r="C1043" s="2"/>
+      <c r="D1043" s="2"/>
+      <c r="E1043" s="2"/>
+      <c r="F1043" s="2"/>
+      <c r="G1043" s="2"/>
+      <c r="H1043" s="2"/>
+      <c r="I1043" s="2"/>
+      <c r="J1043" s="2"/>
+      <c r="K1043" s="2"/>
+      <c r="L1043" s="2"/>
+      <c r="M1043" s="2"/>
+      <c r="N1043" s="2"/>
+      <c r="O1043" s="2"/>
+      <c r="P1043" s="2"/>
+      <c r="Q1043" s="2"/>
+      <c r="R1043" s="2"/>
+      <c r="S1043" s="2"/>
+      <c r="T1043" s="2"/>
+      <c r="U1043" s="2"/>
+      <c r="V1043" s="2"/>
+      <c r="W1043" s="2"/>
+      <c r="X1043" s="2"/>
+      <c r="Y1043" s="2"/>
+      <c r="Z1043" s="2"/>
+      <c r="AA1043" s="2"/>
+    </row>
+    <row r="1044" ht="21.75" customHeight="1">
+      <c r="A1044" s="2"/>
+      <c r="B1044" s="2"/>
+      <c r="C1044" s="2"/>
+      <c r="D1044" s="2"/>
+      <c r="E1044" s="2"/>
+      <c r="F1044" s="2"/>
+      <c r="G1044" s="2"/>
+      <c r="H1044" s="2"/>
+      <c r="I1044" s="2"/>
+      <c r="J1044" s="2"/>
+      <c r="K1044" s="2"/>
+      <c r="L1044" s="2"/>
+      <c r="M1044" s="2"/>
+      <c r="N1044" s="2"/>
+      <c r="O1044" s="2"/>
+      <c r="P1044" s="2"/>
+      <c r="Q1044" s="2"/>
+      <c r="R1044" s="2"/>
+      <c r="S1044" s="2"/>
+      <c r="T1044" s="2"/>
+      <c r="U1044" s="2"/>
+      <c r="V1044" s="2"/>
+      <c r="W1044" s="2"/>
+      <c r="X1044" s="2"/>
+      <c r="Y1044" s="2"/>
+      <c r="Z1044" s="2"/>
+      <c r="AA1044" s="2"/>
+    </row>
+    <row r="1045" ht="21.75" customHeight="1">
+      <c r="A1045" s="2"/>
+      <c r="B1045" s="2"/>
+      <c r="C1045" s="2"/>
+      <c r="D1045" s="2"/>
+      <c r="E1045" s="2"/>
+      <c r="F1045" s="2"/>
+      <c r="G1045" s="2"/>
+      <c r="H1045" s="2"/>
+      <c r="I1045" s="2"/>
+      <c r="J1045" s="2"/>
+      <c r="K1045" s="2"/>
+      <c r="L1045" s="2"/>
+      <c r="M1045" s="2"/>
+      <c r="N1045" s="2"/>
+      <c r="O1045" s="2"/>
+      <c r="P1045" s="2"/>
+      <c r="Q1045" s="2"/>
+      <c r="R1045" s="2"/>
+      <c r="S1045" s="2"/>
+      <c r="T1045" s="2"/>
+      <c r="U1045" s="2"/>
+      <c r="V1045" s="2"/>
+      <c r="W1045" s="2"/>
+      <c r="X1045" s="2"/>
+      <c r="Y1045" s="2"/>
+      <c r="Z1045" s="2"/>
+      <c r="AA1045" s="2"/>
+    </row>
+    <row r="1046" ht="21.75" customHeight="1">
+      <c r="A1046" s="2"/>
+      <c r="B1046" s="2"/>
+      <c r="C1046" s="2"/>
+      <c r="D1046" s="2"/>
+      <c r="E1046" s="2"/>
+      <c r="F1046" s="2"/>
+      <c r="G1046" s="2"/>
+      <c r="H1046" s="2"/>
+      <c r="I1046" s="2"/>
+      <c r="J1046" s="2"/>
+      <c r="K1046" s="2"/>
+      <c r="L1046" s="2"/>
+      <c r="M1046" s="2"/>
+      <c r="N1046" s="2"/>
+      <c r="O1046" s="2"/>
+      <c r="P1046" s="2"/>
+      <c r="Q1046" s="2"/>
+      <c r="R1046" s="2"/>
+      <c r="S1046" s="2"/>
+      <c r="T1046" s="2"/>
+      <c r="U1046" s="2"/>
+      <c r="V1046" s="2"/>
+      <c r="W1046" s="2"/>
+      <c r="X1046" s="2"/>
+      <c r="Y1046" s="2"/>
+      <c r="Z1046" s="2"/>
+      <c r="AA1046" s="2"/>
+    </row>
+    <row r="1047" ht="21.75" customHeight="1">
+      <c r="A1047" s="2"/>
+      <c r="B1047" s="2"/>
+      <c r="C1047" s="2"/>
+      <c r="D1047" s="2"/>
+      <c r="E1047" s="2"/>
+      <c r="F1047" s="2"/>
+      <c r="G1047" s="2"/>
+      <c r="H1047" s="2"/>
+      <c r="I1047" s="2"/>
+      <c r="J1047" s="2"/>
+      <c r="K1047" s="2"/>
+      <c r="L1047" s="2"/>
+      <c r="M1047" s="2"/>
+      <c r="N1047" s="2"/>
+      <c r="O1047" s="2"/>
+      <c r="P1047" s="2"/>
+      <c r="Q1047" s="2"/>
+      <c r="R1047" s="2"/>
+      <c r="S1047" s="2"/>
+      <c r="T1047" s="2"/>
+      <c r="U1047" s="2"/>
+      <c r="V1047" s="2"/>
+      <c r="W1047" s="2"/>
+      <c r="X1047" s="2"/>
+      <c r="Y1047" s="2"/>
+      <c r="Z1047" s="2"/>
+      <c r="AA1047" s="2"/>
+    </row>
+    <row r="1048" ht="21.75" customHeight="1">
+      <c r="A1048" s="2"/>
+      <c r="B1048" s="2"/>
+      <c r="C1048" s="2"/>
+      <c r="D1048" s="2"/>
+      <c r="E1048" s="2"/>
+      <c r="F1048" s="2"/>
+      <c r="G1048" s="2"/>
+      <c r="H1048" s="2"/>
+      <c r="I1048" s="2"/>
+      <c r="J1048" s="2"/>
+      <c r="K1048" s="2"/>
+      <c r="L1048" s="2"/>
+      <c r="M1048" s="2"/>
+      <c r="N1048" s="2"/>
+      <c r="O1048" s="2"/>
+      <c r="P1048" s="2"/>
+      <c r="Q1048" s="2"/>
+      <c r="R1048" s="2"/>
+      <c r="S1048" s="2"/>
+      <c r="T1048" s="2"/>
+      <c r="U1048" s="2"/>
+      <c r="V1048" s="2"/>
+      <c r="W1048" s="2"/>
+      <c r="X1048" s="2"/>
+      <c r="Y1048" s="2"/>
+      <c r="Z1048" s="2"/>
+      <c r="AA1048" s="2"/>
+    </row>
+    <row r="1049" ht="21.75" customHeight="1">
+      <c r="A1049" s="2"/>
+      <c r="B1049" s="2"/>
+      <c r="C1049" s="2"/>
+      <c r="D1049" s="2"/>
+      <c r="E1049" s="2"/>
+      <c r="F1049" s="2"/>
+      <c r="G1049" s="2"/>
+      <c r="H1049" s="2"/>
+      <c r="I1049" s="2"/>
+      <c r="J1049" s="2"/>
+      <c r="K1049" s="2"/>
+      <c r="L1049" s="2"/>
+      <c r="M1049" s="2"/>
+      <c r="N1049" s="2"/>
+      <c r="O1049" s="2"/>
+      <c r="P1049" s="2"/>
+      <c r="Q1049" s="2"/>
+      <c r="R1049" s="2"/>
+      <c r="S1049" s="2"/>
+      <c r="T1049" s="2"/>
+      <c r="U1049" s="2"/>
+      <c r="V1049" s="2"/>
+      <c r="W1049" s="2"/>
+      <c r="X1049" s="2"/>
+      <c r="Y1049" s="2"/>
+      <c r="Z1049" s="2"/>
+      <c r="AA1049" s="2"/>
+    </row>
+    <row r="1050" ht="21.75" customHeight="1">
+      <c r="A1050" s="2"/>
+      <c r="B1050" s="2"/>
+      <c r="C1050" s="2"/>
+      <c r="D1050" s="2"/>
+      <c r="E1050" s="2"/>
+      <c r="F1050" s="2"/>
+      <c r="G1050" s="2"/>
+      <c r="H1050" s="2"/>
+      <c r="I1050" s="2"/>
+      <c r="J1050" s="2"/>
+      <c r="K1050" s="2"/>
+      <c r="L1050" s="2"/>
+      <c r="M1050" s="2"/>
+      <c r="N1050" s="2"/>
+      <c r="O1050" s="2"/>
+      <c r="P1050" s="2"/>
+      <c r="Q1050" s="2"/>
+      <c r="R1050" s="2"/>
+      <c r="S1050" s="2"/>
+      <c r="T1050" s="2"/>
+      <c r="U1050" s="2"/>
+      <c r="V1050" s="2"/>
+      <c r="W1050" s="2"/>
+      <c r="X1050" s="2"/>
+      <c r="Y1050" s="2"/>
+      <c r="Z1050" s="2"/>
+      <c r="AA1050" s="2"/>
+    </row>
+    <row r="1051" ht="21.75" customHeight="1">
+      <c r="A1051" s="2"/>
+      <c r="B1051" s="2"/>
+      <c r="C1051" s="2"/>
+      <c r="D1051" s="2"/>
+      <c r="E1051" s="2"/>
+      <c r="F1051" s="2"/>
+      <c r="G1051" s="2"/>
+      <c r="H1051" s="2"/>
+      <c r="I1051" s="2"/>
+      <c r="J1051" s="2"/>
+      <c r="K1051" s="2"/>
+      <c r="L1051" s="2"/>
+      <c r="M1051" s="2"/>
+      <c r="N1051" s="2"/>
+      <c r="O1051" s="2"/>
+      <c r="P1051" s="2"/>
+      <c r="Q1051" s="2"/>
+      <c r="R1051" s="2"/>
+      <c r="S1051" s="2"/>
+      <c r="T1051" s="2"/>
+      <c r="U1051" s="2"/>
+      <c r="V1051" s="2"/>
+      <c r="W1051" s="2"/>
+      <c r="X1051" s="2"/>
+      <c r="Y1051" s="2"/>
+      <c r="Z1051" s="2"/>
+      <c r="AA1051" s="2"/>
+    </row>
+    <row r="1052" ht="21.75" customHeight="1">
+      <c r="A1052" s="2"/>
+      <c r="B1052" s="2"/>
+      <c r="C1052" s="2"/>
+      <c r="D1052" s="2"/>
+      <c r="E1052" s="2"/>
+      <c r="F1052" s="2"/>
+      <c r="G1052" s="2"/>
+      <c r="H1052" s="2"/>
+      <c r="I1052" s="2"/>
+      <c r="J1052" s="2"/>
+      <c r="K1052" s="2"/>
+      <c r="L1052" s="2"/>
+      <c r="M1052" s="2"/>
+      <c r="N1052" s="2"/>
+      <c r="O1052" s="2"/>
+      <c r="P1052" s="2"/>
+      <c r="Q1052" s="2"/>
+      <c r="R1052" s="2"/>
+      <c r="S1052" s="2"/>
+      <c r="T1052" s="2"/>
+      <c r="U1052" s="2"/>
+      <c r="V1052" s="2"/>
+      <c r="W1052" s="2"/>
+      <c r="X1052" s="2"/>
+      <c r="Y1052" s="2"/>
+      <c r="Z1052" s="2"/>
+      <c r="AA1052" s="2"/>
+    </row>
+    <row r="1053" ht="21.75" customHeight="1">
+      <c r="A1053" s="2"/>
+      <c r="B1053" s="2"/>
+      <c r="C1053" s="2"/>
+      <c r="D1053" s="2"/>
+      <c r="E1053" s="2"/>
+      <c r="F1053" s="2"/>
+      <c r="G1053" s="2"/>
+      <c r="H1053" s="2"/>
+      <c r="I1053" s="2"/>
+      <c r="J1053" s="2"/>
+      <c r="K1053" s="2"/>
+      <c r="L1053" s="2"/>
+      <c r="M1053" s="2"/>
+      <c r="N1053" s="2"/>
+      <c r="O1053" s="2"/>
+      <c r="P1053" s="2"/>
+      <c r="Q1053" s="2"/>
+      <c r="R1053" s="2"/>
+      <c r="S1053" s="2"/>
+      <c r="T1053" s="2"/>
+      <c r="U1053" s="2"/>
+      <c r="V1053" s="2"/>
+      <c r="W1053" s="2"/>
+      <c r="X1053" s="2"/>
+      <c r="Y1053" s="2"/>
+      <c r="Z1053" s="2"/>
+      <c r="AA1053" s="2"/>
+    </row>
+    <row r="1054" ht="21.75" customHeight="1">
+      <c r="A1054" s="2"/>
+      <c r="B1054" s="2"/>
+      <c r="C1054" s="2"/>
+      <c r="D1054" s="2"/>
+      <c r="E1054" s="2"/>
+      <c r="F1054" s="2"/>
+      <c r="G1054" s="2"/>
+      <c r="H1054" s="2"/>
+      <c r="I1054" s="2"/>
+      <c r="J1054" s="2"/>
+      <c r="K1054" s="2"/>
+      <c r="L1054" s="2"/>
+      <c r="M1054" s="2"/>
+      <c r="N1054" s="2"/>
+      <c r="O1054" s="2"/>
+      <c r="P1054" s="2"/>
+      <c r="Q1054" s="2"/>
+      <c r="R1054" s="2"/>
+      <c r="S1054" s="2"/>
+      <c r="T1054" s="2"/>
+      <c r="U1054" s="2"/>
+      <c r="V1054" s="2"/>
+      <c r="W1054" s="2"/>
+      <c r="X1054" s="2"/>
+      <c r="Y1054" s="2"/>
+      <c r="Z1054" s="2"/>
+      <c r="AA1054" s="2"/>
+    </row>
+    <row r="1055" ht="21.75" customHeight="1">
+      <c r="A1055" s="2"/>
+      <c r="B1055" s="2"/>
+      <c r="C1055" s="2"/>
+      <c r="D1055" s="2"/>
+      <c r="E1055" s="2"/>
+      <c r="F1055" s="2"/>
+      <c r="G1055" s="2"/>
+      <c r="H1055" s="2"/>
+      <c r="I1055" s="2"/>
+      <c r="J1055" s="2"/>
+      <c r="K1055" s="2"/>
+      <c r="L1055" s="2"/>
+      <c r="M1055" s="2"/>
+      <c r="N1055" s="2"/>
+      <c r="O1055" s="2"/>
+      <c r="P1055" s="2"/>
+      <c r="Q1055" s="2"/>
+      <c r="R1055" s="2"/>
+      <c r="S1055" s="2"/>
+      <c r="T1055" s="2"/>
+      <c r="U1055" s="2"/>
+      <c r="V1055" s="2"/>
+      <c r="W1055" s="2"/>
+      <c r="X1055" s="2"/>
+      <c r="Y1055" s="2"/>
+      <c r="Z1055" s="2"/>
+      <c r="AA1055" s="2"/>
+    </row>
+    <row r="1056" ht="21.75" customHeight="1">
+      <c r="A1056" s="2"/>
+      <c r="B1056" s="2"/>
+      <c r="C1056" s="2"/>
+      <c r="D1056" s="2"/>
+      <c r="E1056" s="2"/>
+      <c r="F1056" s="2"/>
+      <c r="G1056" s="2"/>
+      <c r="H1056" s="2"/>
+      <c r="I1056" s="2"/>
+      <c r="J1056" s="2"/>
+      <c r="K1056" s="2"/>
+      <c r="L1056" s="2"/>
+      <c r="M1056" s="2"/>
+      <c r="N1056" s="2"/>
+      <c r="O1056" s="2"/>
+      <c r="P1056" s="2"/>
+      <c r="Q1056" s="2"/>
+      <c r="R1056" s="2"/>
+      <c r="S1056" s="2"/>
+      <c r="T1056" s="2"/>
+      <c r="U1056" s="2"/>
+      <c r="V1056" s="2"/>
+      <c r="W1056" s="2"/>
+      <c r="X1056" s="2"/>
+      <c r="Y1056" s="2"/>
+      <c r="Z1056" s="2"/>
+      <c r="AA1056" s="2"/>
+    </row>
+    <row r="1057" ht="21.75" customHeight="1">
+      <c r="A1057" s="2"/>
+      <c r="B1057" s="2"/>
+      <c r="C1057" s="2"/>
+      <c r="D1057" s="2"/>
+      <c r="E1057" s="2"/>
+      <c r="F1057" s="2"/>
+      <c r="G1057" s="2"/>
+      <c r="H1057" s="2"/>
+      <c r="I1057" s="2"/>
+      <c r="J1057" s="2"/>
+      <c r="K1057" s="2"/>
+      <c r="L1057" s="2"/>
+      <c r="M1057" s="2"/>
+      <c r="N1057" s="2"/>
+      <c r="O1057" s="2"/>
+      <c r="P1057" s="2"/>
+      <c r="Q1057" s="2"/>
+      <c r="R1057" s="2"/>
+      <c r="S1057" s="2"/>
+      <c r="T1057" s="2"/>
+      <c r="U1057" s="2"/>
+      <c r="V1057" s="2"/>
+      <c r="W1057" s="2"/>
+      <c r="X1057" s="2"/>
+      <c r="Y1057" s="2"/>
+      <c r="Z1057" s="2"/>
+      <c r="AA1057" s="2"/>
+    </row>
+    <row r="1058" ht="21.75" customHeight="1">
+      <c r="A1058" s="2"/>
+      <c r="B1058" s="2"/>
+      <c r="C1058" s="2"/>
+      <c r="D1058" s="2"/>
+      <c r="E1058" s="2"/>
+      <c r="F1058" s="2"/>
+      <c r="G1058" s="2"/>
+      <c r="H1058" s="2"/>
+      <c r="I1058" s="2"/>
+      <c r="J1058" s="2"/>
+      <c r="K1058" s="2"/>
+      <c r="L1058" s="2"/>
+      <c r="M1058" s="2"/>
+      <c r="N1058" s="2"/>
+      <c r="O1058" s="2"/>
+      <c r="P1058" s="2"/>
+      <c r="Q1058" s="2"/>
+      <c r="R1058" s="2"/>
+      <c r="S1058" s="2"/>
+      <c r="T1058" s="2"/>
+      <c r="U1058" s="2"/>
+      <c r="V1058" s="2"/>
+      <c r="W1058" s="2"/>
+      <c r="X1058" s="2"/>
+      <c r="Y1058" s="2"/>
+      <c r="Z1058" s="2"/>
+      <c r="AA1058" s="2"/>
+    </row>
+    <row r="1059" ht="21.75" customHeight="1">
+      <c r="A1059" s="2"/>
+      <c r="B1059" s="2"/>
+      <c r="C1059" s="2"/>
+      <c r="D1059" s="2"/>
+      <c r="E1059" s="2"/>
+      <c r="F1059" s="2"/>
+      <c r="G1059" s="2"/>
+      <c r="H1059" s="2"/>
+      <c r="I1059" s="2"/>
+      <c r="J1059" s="2"/>
+      <c r="K1059" s="2"/>
+      <c r="L1059" s="2"/>
+      <c r="M1059" s="2"/>
+      <c r="N1059" s="2"/>
+      <c r="O1059" s="2"/>
+      <c r="P1059" s="2"/>
+      <c r="Q1059" s="2"/>
+      <c r="R1059" s="2"/>
+      <c r="S1059" s="2"/>
+      <c r="T1059" s="2"/>
+      <c r="U1059" s="2"/>
+      <c r="V1059" s="2"/>
+      <c r="W1059" s="2"/>
+      <c r="X1059" s="2"/>
+      <c r="Y1059" s="2"/>
+      <c r="Z1059" s="2"/>
+      <c r="AA1059" s="2"/>
+    </row>
+    <row r="1060" ht="21.75" customHeight="1">
+      <c r="A1060" s="2"/>
+      <c r="B1060" s="2"/>
+      <c r="C1060" s="2"/>
+      <c r="D1060" s="2"/>
+      <c r="E1060" s="2"/>
+      <c r="F1060" s="2"/>
+      <c r="G1060" s="2"/>
+      <c r="H1060" s="2"/>
+      <c r="I1060" s="2"/>
+      <c r="J1060" s="2"/>
+      <c r="K1060" s="2"/>
+      <c r="L1060" s="2"/>
+      <c r="M1060" s="2"/>
+      <c r="N1060" s="2"/>
+      <c r="O1060" s="2"/>
+      <c r="P1060" s="2"/>
+      <c r="Q1060" s="2"/>
+      <c r="R1060" s="2"/>
+      <c r="S1060" s="2"/>
+      <c r="T1060" s="2"/>
+      <c r="U1060" s="2"/>
+      <c r="V1060" s="2"/>
+      <c r="W1060" s="2"/>
+      <c r="X1060" s="2"/>
+      <c r="Y1060" s="2"/>
+      <c r="Z1060" s="2"/>
+      <c r="AA1060" s="2"/>
+    </row>
+    <row r="1061" ht="21.75" customHeight="1">
+      <c r="A1061" s="2"/>
+      <c r="B1061" s="2"/>
+      <c r="C1061" s="2"/>
+      <c r="D1061" s="2"/>
+      <c r="E1061" s="2"/>
+      <c r="F1061" s="2"/>
+      <c r="G1061" s="2"/>
+      <c r="H1061" s="2"/>
+      <c r="I1061" s="2"/>
+      <c r="J1061" s="2"/>
+      <c r="K1061" s="2"/>
+      <c r="L1061" s="2"/>
+      <c r="M1061" s="2"/>
+      <c r="N1061" s="2"/>
+      <c r="O1061" s="2"/>
+      <c r="P1061" s="2"/>
+      <c r="Q1061" s="2"/>
+      <c r="R1061" s="2"/>
+      <c r="S1061" s="2"/>
+      <c r="T1061" s="2"/>
+      <c r="U1061" s="2"/>
+      <c r="V1061" s="2"/>
+      <c r="W1061" s="2"/>
+      <c r="X1061" s="2"/>
+      <c r="Y1061" s="2"/>
+      <c r="Z1061" s="2"/>
+      <c r="AA1061" s="2"/>
+    </row>
+    <row r="1062" ht="21.75" customHeight="1">
+      <c r="A1062" s="2"/>
+      <c r="B1062" s="2"/>
+      <c r="C1062" s="2"/>
+      <c r="D1062" s="2"/>
+      <c r="E1062" s="2"/>
+      <c r="F1062" s="2"/>
+      <c r="G1062" s="2"/>
+      <c r="H1062" s="2"/>
+      <c r="I1062" s="2"/>
+      <c r="J1062" s="2"/>
+      <c r="K1062" s="2"/>
+      <c r="L1062" s="2"/>
+      <c r="M1062" s="2"/>
+      <c r="N1062" s="2"/>
+      <c r="O1062" s="2"/>
+      <c r="P1062" s="2"/>
+      <c r="Q1062" s="2"/>
+      <c r="R1062" s="2"/>
+      <c r="S1062" s="2"/>
+      <c r="T1062" s="2"/>
+      <c r="U1062" s="2"/>
+      <c r="V1062" s="2"/>
+      <c r="W1062" s="2"/>
+      <c r="X1062" s="2"/>
+      <c r="Y1062" s="2"/>
+      <c r="Z1062" s="2"/>
+      <c r="AA1062" s="2"/>
+    </row>
+    <row r="1063" ht="21.75" customHeight="1">
+      <c r="A1063" s="2"/>
+      <c r="B1063" s="2"/>
+      <c r="C1063" s="2"/>
+      <c r="D1063" s="2"/>
+      <c r="E1063" s="2"/>
+      <c r="F1063" s="2"/>
+      <c r="G1063" s="2"/>
+      <c r="H1063" s="2"/>
+      <c r="I1063" s="2"/>
+      <c r="J1063" s="2"/>
+      <c r="K1063" s="2"/>
+      <c r="L1063" s="2"/>
+      <c r="M1063" s="2"/>
+      <c r="N1063" s="2"/>
+      <c r="O1063" s="2"/>
+      <c r="P1063" s="2"/>
+      <c r="Q1063" s="2"/>
+      <c r="R1063" s="2"/>
+      <c r="S1063" s="2"/>
+      <c r="T1063" s="2"/>
+      <c r="U1063" s="2"/>
+      <c r="V1063" s="2"/>
+      <c r="W1063" s="2"/>
+      <c r="X1063" s="2"/>
+      <c r="Y1063" s="2"/>
+      <c r="Z1063" s="2"/>
+      <c r="AA1063" s="2"/>
+    </row>
+    <row r="1064" ht="21.75" customHeight="1">
+      <c r="A1064" s="2"/>
+      <c r="B1064" s="2"/>
+      <c r="C1064" s="2"/>
+      <c r="D1064" s="2"/>
+      <c r="E1064" s="2"/>
+      <c r="F1064" s="2"/>
+      <c r="G1064" s="2"/>
+      <c r="H1064" s="2"/>
+      <c r="I1064" s="2"/>
+      <c r="J1064" s="2"/>
+      <c r="K1064" s="2"/>
+      <c r="L1064" s="2"/>
+      <c r="M1064" s="2"/>
+      <c r="N1064" s="2"/>
+      <c r="O1064" s="2"/>
+      <c r="P1064" s="2"/>
+      <c r="Q1064" s="2"/>
+      <c r="R1064" s="2"/>
+      <c r="S1064" s="2"/>
+      <c r="T1064" s="2"/>
+      <c r="U1064" s="2"/>
+      <c r="V1064" s="2"/>
+      <c r="W1064" s="2"/>
+      <c r="X1064" s="2"/>
+      <c r="Y1064" s="2"/>
+      <c r="Z1064" s="2"/>
+      <c r="AA1064" s="2"/>
+    </row>
+    <row r="1065" ht="21.75" customHeight="1">
+      <c r="A1065" s="2"/>
+      <c r="B1065" s="2"/>
+      <c r="C1065" s="2"/>
+      <c r="D1065" s="2"/>
+      <c r="E1065" s="2"/>
+      <c r="F1065" s="2"/>
+      <c r="G1065" s="2"/>
+      <c r="H1065" s="2"/>
+      <c r="I1065" s="2"/>
+      <c r="J1065" s="2"/>
+      <c r="K1065" s="2"/>
+      <c r="L1065" s="2"/>
+      <c r="M1065" s="2"/>
+      <c r="N1065" s="2"/>
+      <c r="O1065" s="2"/>
+      <c r="P1065" s="2"/>
+      <c r="Q1065" s="2"/>
+      <c r="R1065" s="2"/>
+      <c r="S1065" s="2"/>
+      <c r="T1065" s="2"/>
+      <c r="U1065" s="2"/>
+      <c r="V1065" s="2"/>
+      <c r="W1065" s="2"/>
+      <c r="X1065" s="2"/>
+      <c r="Y1065" s="2"/>
+      <c r="Z1065" s="2"/>
+      <c r="AA1065" s="2"/>
+    </row>
+    <row r="1066" ht="21.75" customHeight="1">
+      <c r="A1066" s="2"/>
+      <c r="B1066" s="2"/>
+      <c r="C1066" s="2"/>
+      <c r="D1066" s="2"/>
+      <c r="E1066" s="2"/>
+      <c r="F1066" s="2"/>
+      <c r="G1066" s="2"/>
+      <c r="H1066" s="2"/>
+      <c r="I1066" s="2"/>
+      <c r="J1066" s="2"/>
+      <c r="K1066" s="2"/>
+      <c r="L1066" s="2"/>
+      <c r="M1066" s="2"/>
+      <c r="N1066" s="2"/>
+      <c r="O1066" s="2"/>
+      <c r="P1066" s="2"/>
+      <c r="Q1066" s="2"/>
+      <c r="R1066" s="2"/>
+      <c r="S1066" s="2"/>
+      <c r="T1066" s="2"/>
+      <c r="U1066" s="2"/>
+      <c r="V1066" s="2"/>
+      <c r="W1066" s="2"/>
+      <c r="X1066" s="2"/>
+      <c r="Y1066" s="2"/>
+      <c r="Z1066" s="2"/>
+      <c r="AA1066" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A55:H55"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A129:H129"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:I1000">
+  <conditionalFormatting sqref="A1:I1066">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A1="Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:I1000">
+  <conditionalFormatting sqref="A1:I1066">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$A1="In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:I1000">
+  <conditionalFormatting sqref="A1:I1066">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$A1="Resolve"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:I1000">
+  <conditionalFormatting sqref="A1:I1066">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$A1=""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1:I1066">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$A1="Waiting For"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:I1066">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$A1="Close"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:I1066">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$A1="Close(Do Not Do)"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="F3:F47">
+    <dataValidation type="list" allowBlank="1" sqref="E121">
+      <formula1>"Programmer Backlog,Designer Backlog,Artist Backlog,Liu Yifang,Zhang Jinze,Wen Yangwei,Kong Weihang,Cha Yu"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F3:F107 F118:F125">
       <formula1>"P1_MUST,P2_MUST,P3_MUST,P4_SHOULD,P5_SHOULD,P6_SHOULD,P7_CAN,P8_CAN,P9_CAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E47">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E107 E118:E120 E122:E125">
       <formula1>"Programmer Backlog,Designer Backlog,Artist Backlog,Liu Yifang,Zhang Jinze,Wen Yangwei,Kong Weihang"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G3:G47">
+    <dataValidation type="list" allowBlank="1" sqref="G3:G107 G118:G125">
       <formula1>"S1,S2,S3,S4,S5,S6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C3:C47">
+    <dataValidation type="list" allowBlank="1" sqref="C118:C125">
       <formula1>"2019.12,2020.01,2020.02,2020.3,2020.4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A3:A47">
+    <dataValidation type="list" allowBlank="1" sqref="A118:A125">
       <formula1>"Open,Resolve,In Progress,Waiting For"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B47">
+    <dataValidation type="list" allowBlank="1" sqref="C3:C107">
+      <formula1>"2019.12,2020.01.S1,2020.01.S2,2020.01.S3,2020.01.S4,2020.01.S5,2020.03(Pre-Alpha).S1,2020.03(Pre-Alpha).S2,2020.4(Beta)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="A3:A107">
+      <formula1>"Open,Resolve,In Progress,Waiting For,Close(Do Not Do),Close(Design Change),Close(Unproduced)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="B3:B107 B118:B125">
       <formula1>"Bug,Task"</formula1>
     </dataValidation>
   </dataValidations>
